--- a/InternalPortal/tcfile.xlsx
+++ b/InternalPortal/tcfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="53">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -30,6 +30,148 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>PERMNS_001_Verify_AccountType_Permission_As_None</t>
+  </si>
+  <si>
+    <t>Sorry, you do not have permissions to access this page.</t>
+  </si>
+  <si>
+    <t>Top displayed text is Filters</t>
+  </si>
+  <si>
+    <t>Permissions</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>PERMNS_002_Verify_Branches_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_003_Verify_Classification_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_004_Verify_Industry_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_005_Verify_Po Min Qty_Permission_As_None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top displayed text is </t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>PERMNS_006_Verify_Product Class_Permission_As_None</t>
+  </si>
+  <si>
+    <t>Top displayed text is Filters
+Sync</t>
+  </si>
+  <si>
+    <t>PERMNS_007_Verify_QC Control_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_008_Verify_Quote Approval_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_009_Verify_Quote Types_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_010_Verify_Regions_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_011_Verify_Sales Potential_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_012_Verify_Terms &amp; Conditions_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_013_Verify_Territories_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_014_Verify_User Roles_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_015_Verify_Vendors_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_016_Verify_Warehouse_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_017_Verify_Zip Codes_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_018_Verify_Account Type_Permission_As_View</t>
+  </si>
+  <si>
+    <t>actual displayed option is Filters</t>
+  </si>
+  <si>
+    <t>expected displayed option is Filters edit count is 0</t>
+  </si>
+  <si>
+    <t>PERMNS_019_Verify_Branches_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_020_Verify_Regions_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_021_Verify_Territories_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_022_Verify_Zip Codes_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_023_Verify_Warehouse_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_024_Verify_Classifications_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_025_Verify_Contact Types_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_026_Verify_Industries_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_027_Verify_PO Min Qty_Permission_As_View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual displayed option is </t>
+  </si>
+  <si>
+    <t>expected displayed option is  edit count is 0</t>
+  </si>
+  <si>
+    <t>PERMNS_028_Verify_Quote Types_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_029_Verify_Sales Potential_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_030_Verify_Vendors_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_031_Verify_Quote Approval_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_032_Verify_User Roles_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_033_Verify_Terms &amp; Conditions_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_035_Verify_AccountType_When_QC_Control_Permission_As_View</t>
+  </si>
+  <si>
+    <t>expected displayed option is Add edit count is 0</t>
   </si>
 </sst>
 </file>
@@ -51,7 +193,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +210,16 @@
         <bgColor indexed="13"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor indexed="17"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -81,16 +233,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -116,6 +302,686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/InternalPortal/tcfile.xlsx
+++ b/InternalPortal/tcfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="249">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -38,100 +38,208 @@
     <t>Sorry, you do not have permissions to access this page.</t>
   </si>
   <si>
+    <t xml:space="preserve">Top displayed text is </t>
+  </si>
+  <si>
+    <t>Permissions</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>PERMNS_001_Verify_QuoteForParts_Permission_As_None</t>
+  </si>
+  <si>
+    <t>Top displayed text is Sorry, you do not have permissions to access this page.</t>
+  </si>
+  <si>
+    <t>PERMNS_002_Verify_Branches_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_002_Verify_QuoteForParts_Permission_As_View</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
     <t>Top displayed text is Filters</t>
   </si>
   <si>
-    <t>Permissions</t>
+    <t>PERMNS_003_Verify_Classification_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_003_Verify_CreateSalesOrder_Permission_As_No_Quotes</t>
+  </si>
+  <si>
+    <t>Clone
+Print
+Download</t>
+  </si>
+  <si>
+    <t>Top displayed text is Clone
+Print
+Download</t>
+  </si>
+  <si>
+    <t>PERMNS_004_Verify_CreateSalesOrder_Permission_As_Yes_Quotes</t>
+  </si>
+  <si>
+    <t>Create Sales Order
+Clone
+Print
+Download</t>
+  </si>
+  <si>
+    <t>Top displayed text is Create Sales Order
+Clone
+Print
+Download</t>
+  </si>
+  <si>
+    <t>PERMNS_004_Verify_Industry_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_005_Verify_Po Min Qty_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_005_Verify_QuoteClose_Permission_As_No_Quotes</t>
+  </si>
+  <si>
+    <t>Re Open
+Clone
+Print
+Download</t>
+  </si>
+  <si>
+    <t>Top displayed text is Re Open
+Clone
+Print
+Download</t>
+  </si>
+  <si>
+    <t>PERMNS_006_Verify_Product Class_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_006_Verify_QuoteClose_Permission_As_Yes_Quotes</t>
+  </si>
+  <si>
+    <t>Re Open
+Close
+Clone
+Print
+Download</t>
+  </si>
+  <si>
+    <t>Top displayed text is Re Open
+Close
+Clone
+Print
+Download</t>
+  </si>
+  <si>
+    <t>PERMNS_007_Verify_Edit_IIDM_Cost_Permission_As_No_Quotes</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Top displayed text is true</t>
+  </si>
+  <si>
+    <t>PERMNS_007_Verify_QC Control_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_008_Verify_Edit_IIDM_Cost_Permission_As_Yes_Quotes</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Top displayed text is null</t>
+  </si>
+  <si>
+    <t>PERMNS_008_Verify_Quote Approval_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_009_Verify_Quote Types_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_009_Verify_ReOpen_Permission_As_No_Quotes</t>
+  </si>
+  <si>
+    <t>Close
+Clone
+Print
+Download</t>
+  </si>
+  <si>
+    <t>Top displayed text is Close
+Clone
+Print
+Download</t>
+  </si>
+  <si>
+    <t>PERMNS_010_Verify_Regions_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_010_Verify_ReOpen_Permission_As_Yes_Quotes</t>
+  </si>
+  <si>
+    <t>PERMNS_011_Verify_Sales Potential_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_012_Verify_Terms &amp; Conditions_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_013_Verify_Territories_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_014_Verify_User Roles_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_015_Verify_Vendors_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_016_Verify_Warehouse_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_017_Verify_Zip Codes_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_018_Verify_Account Type_Permission_As_View</t>
+  </si>
+  <si>
+    <t>actual displayed option is Filters</t>
+  </si>
+  <si>
+    <t>expected displayed option is Filters edit count is 0</t>
+  </si>
+  <si>
+    <t>PERMNS_019_Verify_Branches_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_020_Verify_Regions_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_021_Verify_Territories_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_022_Verify_Zip Codes_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_023_Verify_Warehouse_Permission_As_View</t>
+  </si>
+  <si>
+    <t>actual displayed option is Filters
+Sync</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>2023-05-25</t>
-  </si>
-  <si>
-    <t>PERMNS_002_Verify_Branches_Permission_As_None</t>
-  </si>
-  <si>
-    <t>PERMNS_003_Verify_Classification_Permission_As_None</t>
-  </si>
-  <si>
-    <t>PERMNS_004_Verify_Industry_Permission_As_None</t>
-  </si>
-  <si>
-    <t>PERMNS_005_Verify_Po Min Qty_Permission_As_None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top displayed text is </t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>PERMNS_006_Verify_Product Class_Permission_As_None</t>
-  </si>
-  <si>
-    <t>Top displayed text is Filters
-Sync</t>
-  </si>
-  <si>
-    <t>PERMNS_007_Verify_QC Control_Permission_As_None</t>
-  </si>
-  <si>
-    <t>PERMNS_008_Verify_Quote Approval_Permission_As_None</t>
-  </si>
-  <si>
-    <t>PERMNS_009_Verify_Quote Types_Permission_As_None</t>
-  </si>
-  <si>
-    <t>PERMNS_010_Verify_Regions_Permission_As_None</t>
-  </si>
-  <si>
-    <t>PERMNS_011_Verify_Sales Potential_Permission_As_None</t>
-  </si>
-  <si>
-    <t>PERMNS_012_Verify_Terms &amp; Conditions_Permission_As_None</t>
-  </si>
-  <si>
-    <t>PERMNS_013_Verify_Territories_Permission_As_None</t>
-  </si>
-  <si>
-    <t>PERMNS_014_Verify_User Roles_Permission_As_None</t>
-  </si>
-  <si>
-    <t>PERMNS_015_Verify_Vendors_Permission_As_None</t>
-  </si>
-  <si>
-    <t>PERMNS_016_Verify_Warehouse_Permission_As_None</t>
-  </si>
-  <si>
-    <t>PERMNS_017_Verify_Zip Codes_Permission_As_None</t>
-  </si>
-  <si>
-    <t>PERMNS_018_Verify_Account Type_Permission_As_View</t>
-  </si>
-  <si>
-    <t>actual displayed option is Filters</t>
-  </si>
-  <si>
-    <t>expected displayed option is Filters edit count is 0</t>
-  </si>
-  <si>
-    <t>PERMNS_019_Verify_Branches_Permission_As_View</t>
-  </si>
-  <si>
-    <t>PERMNS_020_Verify_Regions_Permission_As_View</t>
-  </si>
-  <si>
-    <t>PERMNS_021_Verify_Territories_Permission_As_View</t>
-  </si>
-  <si>
-    <t>PERMNS_022_Verify_Zip Codes_Permission_As_View</t>
-  </si>
-  <si>
-    <t>PERMNS_023_Verify_Warehouse_Permission_As_View</t>
-  </si>
-  <si>
     <t>PERMNS_024_Verify_Classifications_Permission_As_View</t>
   </si>
   <si>
@@ -168,10 +276,578 @@
     <t>PERMNS_033_Verify_Terms &amp; Conditions_Permission_As_View</t>
   </si>
   <si>
+    <t>PERMNS_034_Verify_QC Control_Permission_As_View</t>
+  </si>
+  <si>
     <t>PERMNS_035_Verify_AccountType_When_QC_Control_Permission_As_View</t>
   </si>
   <si>
     <t>expected displayed option is Add edit count is 0</t>
+  </si>
+  <si>
+    <t>PERMNS_036_Verify_Pricing_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_037_Verify_Discount Codes_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_038_Verify_Non Standard Pricing_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_039_Verify_Export_Permission_As_Yes_In_Pricing</t>
+  </si>
+  <si>
+    <t>Import
+Export
+Add
+Filters</t>
+  </si>
+  <si>
+    <t>Top displayed text is Import
+Export
+Add
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_040_Verify_Export_Permission_As_NoIn_Pricing</t>
+  </si>
+  <si>
+    <t>Import
+Add
+Filters</t>
+  </si>
+  <si>
+    <t>Top displayed text is Import
+Add
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_041_Verify_Import_Permission_As_Yes_In_Pricing</t>
+  </si>
+  <si>
+    <t>PERMNS_042_Verify_Import_Permission_As_No_In_Pricing</t>
+  </si>
+  <si>
+    <t>Export
+Add
+Filters</t>
+  </si>
+  <si>
+    <t>Top displayed text is Export
+Add
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_043_Verify_Export_Permission_As_Yes_In_Discount Codes</t>
+  </si>
+  <si>
+    <t>Multi Edit
+Export
+Add
+Filters</t>
+  </si>
+  <si>
+    <t>Top displayed text is Multi Edit
+Export
+Add
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_044_Verify_Export_Permission_As_No_In_Discount Codes</t>
+  </si>
+  <si>
+    <t>Multi Edit
+Add
+Filters</t>
+  </si>
+  <si>
+    <t>Top displayed text is Multi Edit
+Add
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_044_Verify_Export_Permission_As_Yes_In_Non Standard Pricing</t>
+  </si>
+  <si>
+    <t>Pricing Rule Configurator
+Export</t>
+  </si>
+  <si>
+    <t>Top displayed text is Pricing Rule Configurator
+Export</t>
+  </si>
+  <si>
+    <t>PERMNS_045_Verify_Export_Permission_As_No_In_Non Standard Pricing</t>
+  </si>
+  <si>
+    <t>Pricing Rule Configurator</t>
+  </si>
+  <si>
+    <t>Top displayed text is Pricing Rule Configurator</t>
+  </si>
+  <si>
+    <t>PERMNS_046_Verify_Pricing_Permission_As_View</t>
+  </si>
+  <si>
+    <t>Import
+Export
+Filters</t>
+  </si>
+  <si>
+    <t>Top displayed text is Import
+Export
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_047_Verify_Discount Codes_Permission_As_View</t>
+  </si>
+  <si>
+    <t>Export
+Filters</t>
+  </si>
+  <si>
+    <t>Top displayed text is Export
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_048_Verify_Non Standard Pricing_Permission_As_View</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PERMNS_049_Verify_Repair Request_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_050_Verify_Repair Request_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_051_Verify_Add To Quote_Permission_As_Yes_In_Repairs</t>
+  </si>
+  <si>
+    <t>Add items to quote</t>
+  </si>
+  <si>
+    <t>In Item displayed button is Add items to quote</t>
+  </si>
+  <si>
+    <t>PRICING_001_VerifyAddProduct</t>
+  </si>
+  <si>
+    <t>114315126525103</t>
+  </si>
+  <si>
+    <t>PricingPage</t>
+  </si>
+  <si>
+    <t>PRICING_002_VerifyUpdateProduct</t>
+  </si>
+  <si>
+    <t>before update List Price is 112.18</t>
+  </si>
+  <si>
+    <t>after update List Price is 122.18</t>
+  </si>
+  <si>
+    <t>PRICING_003_VerifyAddDiscountCode</t>
+  </si>
+  <si>
+    <t>DC114403404045879</t>
+  </si>
+  <si>
+    <t>PRICING_004_VerifyUpdateDiscountCode</t>
+  </si>
+  <si>
+    <t>before update Our Price value is 3.11</t>
+  </si>
+  <si>
+    <t>after update Our Price value is 4.17</t>
+  </si>
+  <si>
+    <t>PRICING_005_VerifyImport</t>
+  </si>
+  <si>
+    <t>Imported Data Successfully</t>
+  </si>
+  <si>
+    <t>PRICING_012_VerifyAddProduct_DuplicateStockCode</t>
+  </si>
+  <si>
+    <t>The Stock Code already exists.</t>
+  </si>
+  <si>
+    <t>PRICING_013_VerifyAddProduct_EmptyStockCode</t>
+  </si>
+  <si>
+    <t>Please enter Stock Code</t>
+  </si>
+  <si>
+    <t>PRICING_014_VerifyAddProduct_EmptyDiscountCode</t>
+  </si>
+  <si>
+    <t>Please select Discount Code</t>
+  </si>
+  <si>
+    <t>PRICING_015_VerifyAddProduct_EmptyListPrice</t>
+  </si>
+  <si>
+    <t>Please enter List Price</t>
+  </si>
+  <si>
+    <t>PRICING_016_VerifyAddProduct_InvalidListPrice</t>
+  </si>
+  <si>
+    <t>Please enter valid number</t>
+  </si>
+  <si>
+    <t>PRICING_017_VerifyAddProduct_EmptyProductClass</t>
+  </si>
+  <si>
+    <t>Please select Product Class</t>
+  </si>
+  <si>
+    <t>PRICING_018_VerifyUpdateProduct_EmptyListPrice</t>
+  </si>
+  <si>
+    <t>PRICING_019_VerifyUpdateProduct_InvalidListPrice</t>
+  </si>
+  <si>
+    <t>PRICING_020_Verify_isDifferentPricing_CheckBox_InVendors</t>
+  </si>
+  <si>
+    <t>is different pricing option  not applied</t>
+  </si>
+  <si>
+    <t>This Vendor having Different Pricing By Branch</t>
+  </si>
+  <si>
+    <t>QUOTES_001_VerifyCreateQuote</t>
+  </si>
+  <si>
+    <t>#2023053100048
+OPEN</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>QuotesPage</t>
+  </si>
+  <si>
+    <t>QUOTES_002_VerifySelectItemToQuote</t>
+  </si>
+  <si>
+    <t>Quote Items (0)</t>
+  </si>
+  <si>
+    <t>Quote Items (1)</t>
+  </si>
+  <si>
+    <t>QUOTES_003_VerifySubmitForInternalApproval</t>
+  </si>
+  <si>
+    <t>#2023053100050
+PENDING APPROVAL</t>
+  </si>
+  <si>
+    <t>PENDING APPROVAL</t>
+  </si>
+  <si>
+    <t>QUOTES_004_VerifyApproveButton</t>
+  </si>
+  <si>
+    <t>#2023053100051
+APPROVED</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
+    <t>QUOTES_005_VerifySubmitForCustomerApproval</t>
+  </si>
+  <si>
+    <t>#2023053100052
+DELIVERED TO CUSTOMER</t>
+  </si>
+  <si>
+    <t>DELIVERED TO CUSTOMER</t>
+  </si>
+  <si>
+    <t>QUOTES_006_VerifyQuoteWon</t>
+  </si>
+  <si>
+    <t>#2023053100053
+Option 1
+WON</t>
+  </si>
+  <si>
+    <t>WON</t>
+  </si>
+  <si>
+    <t>QUOTES_007_VerifyQuoteLost</t>
+  </si>
+  <si>
+    <t>#2023053100054
+LOST</t>
+  </si>
+  <si>
+    <t>LOST</t>
+  </si>
+  <si>
+    <t>QUOTES_008_VerifyReviseQuote</t>
+  </si>
+  <si>
+    <t>#2023053100055
+V2
+OPEN</t>
+  </si>
+  <si>
+    <t>V2
+OPEN</t>
+  </si>
+  <si>
+    <t>QUOTES_009_VerifyPrintFunctionality</t>
+  </si>
+  <si>
+    <t>Print working in Quotes Detailed Page.</t>
+  </si>
+  <si>
+    <t>QUOTES_010_VerifySearchByQuoteId</t>
+  </si>
+  <si>
+    <t>No Quotes for Parts Found! for QUOTES_010_VerifySearchByQuoteId</t>
+  </si>
+  <si>
+    <t>2023031500024</t>
+  </si>
+  <si>
+    <t>QUOTES_011_VerifySearchByCompanyName</t>
+  </si>
+  <si>
+    <t>123 E Doty Corporation</t>
+  </si>
+  <si>
+    <t>QUOTES_012_VerifySearchBySalesPersonName</t>
+  </si>
+  <si>
+    <t>No Quotes for Parts Found! for QUOTES_012_VerifySearchBySalesPersonName</t>
+  </si>
+  <si>
+    <t>Ramsay Taiym</t>
+  </si>
+  <si>
+    <t>QUOTES_013_VerifySearchByEmail</t>
+  </si>
+  <si>
+    <t>No Quotes for Parts Found! for QUOTES_013_VerifySearchByEmail</t>
+  </si>
+  <si>
+    <t>pete.soto@motion-ind.com</t>
+  </si>
+  <si>
+    <t>QUOTES_014_VerifyFiltersInQuotesListView</t>
+  </si>
+  <si>
+    <t>No Quotes for Parts Found!</t>
+  </si>
+  <si>
+    <t>QUOTES_015_VerifyFiltersStateMaintanance</t>
+  </si>
+  <si>
+    <t>Filter State Maintanance working.</t>
+  </si>
+  <si>
+    <t>QUOTES_016_VerifyResetandClearButtonInFiltersPage</t>
+  </si>
+  <si>
+    <t>Search By Company Name</t>
+  </si>
+  <si>
+    <t>QUOTES_017_VerifyReOpen_ButtonInQuoteDetailePage</t>
+  </si>
+  <si>
+    <t>#2023053100058
+OPEN</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>QUOTES_018_VerifyClose_ButtonInQuoteDetailePage</t>
+  </si>
+  <si>
+    <t>#2023053100059
+CLOSED</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>QUOTES_019_VerifyDeleteIconInQuoteItems</t>
+  </si>
+  <si>
+    <t>QUOTES_020_VerifyEditIconInQuoteItems</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>QUOTES_021_Verify_AddOptionInQuoteDetailedView</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>QUOTES_022_VerifyQuoteClone_QuotesForParts</t>
+  </si>
+  <si>
+    <t>#2023053100064
+OPEN</t>
+  </si>
+  <si>
+    <t>QUOTES_023_VerifyQuoteClone_QuotesForRepairs</t>
+  </si>
+  <si>
+    <t>Quote Type is Parts Quote</t>
+  </si>
+  <si>
+    <t>Quote status is #2023053100066
+OPEN</t>
+  </si>
+  <si>
+    <t>QUOTES_024_Verify_Decline_QuotesForParts</t>
+  </si>
+  <si>
+    <t>#2023053100067
+REJECTED</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
+  </si>
+  <si>
+    <t>REPAIRS_001_VerifyCreateRMA</t>
+  </si>
+  <si>
+    <t>#000200
+CHECK IN PENDING</t>
+  </si>
+  <si>
+    <t>CHECK IN PENDING</t>
+  </si>
+  <si>
+    <t>RepairsPage</t>
+  </si>
+  <si>
+    <t>REPAIRS_002_VerifySelectItemToRepair</t>
+  </si>
+  <si>
+    <t>Repair Items (0)</t>
+  </si>
+  <si>
+    <t>Repair Items (1)</t>
+  </si>
+  <si>
+    <t>REPAIRS_003_VerifyAddNewItem</t>
+  </si>
+  <si>
+    <t>REPAIRS_004_VerifyAssignLocation</t>
+  </si>
+  <si>
+    <t>#000203
+CHECKED-IN</t>
+  </si>
+  <si>
+    <t>CHECKED-IN</t>
+  </si>
+  <si>
+    <t>REPAIRS_005_VerifyAssignTechnician</t>
+  </si>
+  <si>
+    <t>#000204
+PENDING EVALUATION</t>
+  </si>
+  <si>
+    <t>PENDING EVALUATION</t>
+  </si>
+  <si>
+    <t>REPAIRS_006_VerifyEvaluateItem</t>
+  </si>
+  <si>
+    <t>#000205
+PENDING QUOTE</t>
+  </si>
+  <si>
+    <t>PENDING QUOTE</t>
+  </si>
+  <si>
+    <t>REPAIRS_007_VerifyAddRepairableItemToQuote</t>
+  </si>
+  <si>
+    <t>#000206
+ADDED TO QUOTE</t>
+  </si>
+  <si>
+    <t>ADDED TO QUOTE</t>
+  </si>
+  <si>
+    <t>REPAIRS_008_VerifyCreateQuoteFromRepair</t>
+  </si>
+  <si>
+    <t>#2023053100044
+OPEN</t>
+  </si>
+  <si>
+    <t>REPAIRS_009_VerifyAssignToQC</t>
+  </si>
+  <si>
+    <t>#000208
+PENDING QC</t>
+  </si>
+  <si>
+    <t>PENDING QC</t>
+  </si>
+  <si>
+    <t>REPAIRS_010_VerifyQCCheckList</t>
+  </si>
+  <si>
+    <t>#000209
+COMPLETED</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>REPAIRS_011_VerifyQCCheckListStatusAsFail</t>
+  </si>
+  <si>
+    <t>QC FAILED</t>
+  </si>
+  <si>
+    <t>REPAIRS_012_VerifyFileUpload</t>
+  </si>
+  <si>
+    <t>Documents
+Upload
+000211-1.png
+Uploaded Successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documents Not Available</t>
+  </si>
+  <si>
+    <t>REPAIRS_013_VerifyFilters</t>
+  </si>
+  <si>
+    <t>123 E Doty Corporation Dallas House CHECK IN PENDING</t>
+  </si>
+  <si>
+    <t>123 E Doty Corporation Dallas House Check In Pending</t>
+  </si>
+  <si>
+    <t>REPAIRS_014_VerifyFilterStateMaintanance</t>
+  </si>
+  <si>
+    <t>filters  are stabled after refresh the page</t>
   </si>
 </sst>
 </file>
@@ -233,50 +909,130 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -315,7 +1071,7 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F2" t="s">
@@ -330,12 +1086,12 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F3" t="s">
@@ -344,7 +1100,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -355,7 +1111,7 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F4" t="s">
@@ -364,18 +1120,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F5" t="s">
@@ -384,19 +1140,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -404,18 +1160,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F7" t="s">
@@ -424,19 +1180,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -444,19 +1200,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -464,7 +1220,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -475,7 +1231,7 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F10" t="s">
@@ -484,18 +1240,18 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F11" t="s">
@@ -504,7 +1260,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -515,7 +1271,7 @@
       <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F12" t="s">
@@ -524,19 +1280,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -544,18 +1300,18 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F14" t="s">
@@ -564,19 +1320,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -584,18 +1340,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F16" t="s">
@@ -604,7 +1360,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -615,7 +1371,7 @@
       <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F17" t="s">
@@ -624,7 +1380,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -635,7 +1391,7 @@
       <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F18" t="s">
@@ -644,19 +1400,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -664,19 +1420,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -684,7 +1440,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -696,7 +1452,7 @@
         <v>9</v>
       </c>
       <c r="E21" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -704,19 +1460,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -724,19 +1480,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -744,19 +1500,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -764,19 +1520,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -784,19 +1540,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -804,19 +1560,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -824,19 +1580,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -844,19 +1600,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -864,19 +1620,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -884,19 +1640,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -904,19 +1660,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -924,19 +1680,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -944,19 +1700,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="E34" t="s" s="1">
-        <v>17</v>
+      <c r="E34" t="s">
+        <v>64</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -964,21 +1720,1621 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" t="s">
+        <v>120</v>
+      </c>
+      <c r="E71" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" t="s">
+        <v>120</v>
+      </c>
+      <c r="E74" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" t="s">
+        <v>120</v>
+      </c>
+      <c r="E75" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" t="s">
+        <v>120</v>
+      </c>
+      <c r="E76" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" t="s">
+        <v>64</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" t="s">
+        <v>154</v>
+      </c>
+      <c r="D79" t="s">
+        <v>151</v>
+      </c>
+      <c r="E79" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" t="s">
+        <v>151</v>
+      </c>
+      <c r="E80" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" t="s">
+        <v>160</v>
+      </c>
+      <c r="D81" t="s">
+        <v>151</v>
+      </c>
+      <c r="E81" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" t="s">
+        <v>151</v>
+      </c>
+      <c r="E82" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" t="s">
+        <v>151</v>
+      </c>
+      <c r="E83" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="s">
+        <v>172</v>
+      </c>
+      <c r="D85" t="s">
+        <v>151</v>
+      </c>
+      <c r="E85" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" t="s">
+        <v>151</v>
+      </c>
+      <c r="E86" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" t="s">
+        <v>151</v>
+      </c>
+      <c r="E87" t="s">
+        <v>64</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" t="s">
+        <v>151</v>
+      </c>
+      <c r="E88" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" t="s">
+        <v>182</v>
+      </c>
+      <c r="D89" t="s">
+        <v>151</v>
+      </c>
+      <c r="E89" t="s">
+        <v>64</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" t="s">
+        <v>185</v>
+      </c>
+      <c r="D90" t="s">
+        <v>151</v>
+      </c>
+      <c r="E90" t="s">
+        <v>64</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" t="s">
+        <v>187</v>
+      </c>
+      <c r="C91" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" t="s">
+        <v>151</v>
+      </c>
+      <c r="E91" t="s">
+        <v>64</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" t="s">
+        <v>151</v>
+      </c>
+      <c r="E92" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" t="s">
+        <v>112</v>
+      </c>
+      <c r="D93" t="s">
+        <v>151</v>
+      </c>
+      <c r="E93" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" t="s">
+        <v>151</v>
+      </c>
+      <c r="E94" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" t="s">
+        <v>197</v>
+      </c>
+      <c r="D95" t="s">
+        <v>151</v>
+      </c>
+      <c r="E95" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s">
+        <v>154</v>
+      </c>
+      <c r="C96" t="s">
+        <v>153</v>
+      </c>
+      <c r="D96" t="s">
+        <v>151</v>
+      </c>
+      <c r="E96" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97" t="s">
+        <v>151</v>
+      </c>
+      <c r="E97" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" t="s">
+        <v>202</v>
+      </c>
+      <c r="D98" t="s">
+        <v>151</v>
+      </c>
+      <c r="E98" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" t="s">
+        <v>150</v>
+      </c>
+      <c r="D99" t="s">
+        <v>151</v>
+      </c>
+      <c r="E99" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" t="s">
+        <v>207</v>
+      </c>
+      <c r="D100" t="s">
+        <v>151</v>
+      </c>
+      <c r="E100" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" t="s">
+        <v>210</v>
+      </c>
+      <c r="D101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E101" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102" t="s">
+        <v>212</v>
+      </c>
+      <c r="C102" t="s">
+        <v>213</v>
+      </c>
+      <c r="D102" t="s">
+        <v>214</v>
+      </c>
+      <c r="E102" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>215</v>
+      </c>
+      <c r="B103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" t="s">
+        <v>217</v>
+      </c>
+      <c r="D103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E103" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>218</v>
+      </c>
+      <c r="B104" t="s">
+        <v>216</v>
+      </c>
+      <c r="C104" t="s">
+        <v>217</v>
+      </c>
+      <c r="D104" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>219</v>
+      </c>
+      <c r="B105" t="s">
+        <v>220</v>
+      </c>
+      <c r="C105" t="s">
+        <v>221</v>
+      </c>
+      <c r="D105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E105" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" t="s">
+        <v>224</v>
+      </c>
+      <c r="D106" t="s">
+        <v>214</v>
+      </c>
+      <c r="E106" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>225</v>
+      </c>
+      <c r="B107" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" t="s">
+        <v>227</v>
+      </c>
+      <c r="D107" t="s">
+        <v>214</v>
+      </c>
+      <c r="E107" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" t="s">
+        <v>230</v>
+      </c>
+      <c r="D108" t="s">
+        <v>214</v>
+      </c>
+      <c r="E108" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>231</v>
+      </c>
+      <c r="B109" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" t="s">
+        <v>150</v>
+      </c>
+      <c r="D109" t="s">
+        <v>214</v>
+      </c>
+      <c r="E109" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>233</v>
+      </c>
+      <c r="B110" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" t="s">
+        <v>235</v>
+      </c>
+      <c r="D110" t="s">
+        <v>214</v>
+      </c>
+      <c r="E110" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>236</v>
+      </c>
+      <c r="B111" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" t="s">
+        <v>238</v>
+      </c>
+      <c r="D111" t="s">
+        <v>214</v>
+      </c>
+      <c r="E111" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>239</v>
+      </c>
+      <c r="B112" t="s">
+        <v>240</v>
+      </c>
+      <c r="C112" t="s">
+        <v>240</v>
+      </c>
+      <c r="D112" t="s">
+        <v>214</v>
+      </c>
+      <c r="E112" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>241</v>
+      </c>
+      <c r="B113" t="s">
+        <v>242</v>
+      </c>
+      <c r="C113" t="s">
+        <v>243</v>
+      </c>
+      <c r="D113" t="s">
+        <v>214</v>
+      </c>
+      <c r="E113" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>244</v>
+      </c>
+      <c r="B114" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" t="s">
+        <v>246</v>
+      </c>
+      <c r="D114" t="s">
+        <v>214</v>
+      </c>
+      <c r="E114" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>247</v>
+      </c>
+      <c r="B115" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" t="s">
+        <v>112</v>
+      </c>
+      <c r="D115" t="s">
+        <v>214</v>
+      </c>
+      <c r="E115" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
         <v>11</v>
       </c>
     </row>

--- a/InternalPortal/tcfile.xlsx
+++ b/InternalPortal/tcfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="126">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -47,147 +47,36 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>2023-05-31</t>
-  </si>
-  <si>
-    <t>PERMNS_001_Verify_QuoteForParts_Permission_As_None</t>
-  </si>
-  <si>
-    <t>Top displayed text is Sorry, you do not have permissions to access this page.</t>
+    <t>2023-06-01</t>
   </si>
   <si>
     <t>PERMNS_002_Verify_Branches_Permission_As_None</t>
   </si>
   <si>
-    <t>PERMNS_002_Verify_QuoteForParts_Permission_As_View</t>
-  </si>
-  <si>
-    <t>Filters</t>
-  </si>
-  <si>
-    <t>Top displayed text is Filters</t>
-  </si>
-  <si>
     <t>PERMNS_003_Verify_Classification_Permission_As_None</t>
   </si>
   <si>
-    <t>PERMNS_003_Verify_CreateSalesOrder_Permission_As_No_Quotes</t>
-  </si>
-  <si>
-    <t>Clone
-Print
-Download</t>
-  </si>
-  <si>
-    <t>Top displayed text is Clone
-Print
-Download</t>
-  </si>
-  <si>
-    <t>PERMNS_004_Verify_CreateSalesOrder_Permission_As_Yes_Quotes</t>
-  </si>
-  <si>
-    <t>Create Sales Order
-Clone
-Print
-Download</t>
-  </si>
-  <si>
-    <t>Top displayed text is Create Sales Order
-Clone
-Print
-Download</t>
-  </si>
-  <si>
     <t>PERMNS_004_Verify_Industry_Permission_As_None</t>
   </si>
   <si>
     <t>PERMNS_005_Verify_Po Min Qty_Permission_As_None</t>
   </si>
   <si>
-    <t>PERMNS_005_Verify_QuoteClose_Permission_As_No_Quotes</t>
-  </si>
-  <si>
-    <t>Re Open
-Clone
-Print
-Download</t>
-  </si>
-  <si>
-    <t>Top displayed text is Re Open
-Clone
-Print
-Download</t>
-  </si>
-  <si>
     <t>PERMNS_006_Verify_Product Class_Permission_As_None</t>
   </si>
   <si>
-    <t>PERMNS_006_Verify_QuoteClose_Permission_As_Yes_Quotes</t>
-  </si>
-  <si>
-    <t>Re Open
-Close
-Clone
-Print
-Download</t>
-  </si>
-  <si>
-    <t>Top displayed text is Re Open
-Close
-Clone
-Print
-Download</t>
-  </si>
-  <si>
-    <t>PERMNS_007_Verify_Edit_IIDM_Cost_Permission_As_No_Quotes</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Top displayed text is true</t>
-  </si>
-  <si>
     <t>PERMNS_007_Verify_QC Control_Permission_As_None</t>
   </si>
   <si>
-    <t>PERMNS_008_Verify_Edit_IIDM_Cost_Permission_As_Yes_Quotes</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Top displayed text is null</t>
-  </si>
-  <si>
     <t>PERMNS_008_Verify_Quote Approval_Permission_As_None</t>
   </si>
   <si>
     <t>PERMNS_009_Verify_Quote Types_Permission_As_None</t>
   </si>
   <si>
-    <t>PERMNS_009_Verify_ReOpen_Permission_As_No_Quotes</t>
-  </si>
-  <si>
-    <t>Close
-Clone
-Print
-Download</t>
-  </si>
-  <si>
-    <t>Top displayed text is Close
-Clone
-Print
-Download</t>
-  </si>
-  <si>
     <t>PERMNS_010_Verify_Regions_Permission_As_None</t>
   </si>
   <si>
-    <t>PERMNS_010_Verify_ReOpen_Permission_As_Yes_Quotes</t>
-  </si>
-  <si>
     <t>PERMNS_011_Verify_Sales Potential_Permission_As_None</t>
   </si>
   <si>
@@ -233,56 +122,52 @@
     <t>PERMNS_023_Verify_Warehouse_Permission_As_View</t>
   </si>
   <si>
-    <t>actual displayed option is Filters
-Sync</t>
+    <t>PERMNS_024_Verify_Classifications_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_025_Verify_Contact Types_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_026_Verify_Industries_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_027_Verify_PO Min Qty_Permission_As_View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual displayed option is </t>
+  </si>
+  <si>
+    <t>expected displayed option is  edit count is 0</t>
+  </si>
+  <si>
+    <t>PERMNS_028_Verify_Quote Types_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_029_Verify_Sales Potential_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_030_Verify_Vendors_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_031_Verify_Quote Approval_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_032_Verify_User Roles_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_033_Verify_Terms &amp; Conditions_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_034_Verify_QC Control_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_035_Verify_AccountType_When_QC_Control_Permission_As_View</t>
+  </si>
+  <si>
+    <t>expected displayed option is Add edit count is 0</t>
   </si>
   <si>
     <t>Failed</t>
-  </si>
-  <si>
-    <t>PERMNS_024_Verify_Classifications_Permission_As_View</t>
-  </si>
-  <si>
-    <t>PERMNS_025_Verify_Contact Types_Permission_As_View</t>
-  </si>
-  <si>
-    <t>PERMNS_026_Verify_Industries_Permission_As_View</t>
-  </si>
-  <si>
-    <t>PERMNS_027_Verify_PO Min Qty_Permission_As_View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actual displayed option is </t>
-  </si>
-  <si>
-    <t>expected displayed option is  edit count is 0</t>
-  </si>
-  <si>
-    <t>PERMNS_028_Verify_Quote Types_Permission_As_View</t>
-  </si>
-  <si>
-    <t>PERMNS_029_Verify_Sales Potential_Permission_As_View</t>
-  </si>
-  <si>
-    <t>PERMNS_030_Verify_Vendors_Permission_As_View</t>
-  </si>
-  <si>
-    <t>PERMNS_031_Verify_Quote Approval_Permission_As_View</t>
-  </si>
-  <si>
-    <t>PERMNS_032_Verify_User Roles_Permission_As_View</t>
-  </si>
-  <si>
-    <t>PERMNS_033_Verify_Terms &amp; Conditions_Permission_As_View</t>
-  </si>
-  <si>
-    <t>PERMNS_034_Verify_QC Control_Permission_As_View</t>
-  </si>
-  <si>
-    <t>PERMNS_035_Verify_AccountType_When_QC_Control_Permission_As_View</t>
-  </si>
-  <si>
-    <t>expected displayed option is Add edit count is 0</t>
   </si>
   <si>
     <t>PERMNS_036_Verify_Pricing_Permission_As_None</t>
@@ -312,16 +197,6 @@
     <t>PERMNS_040_Verify_Export_Permission_As_NoIn_Pricing</t>
   </si>
   <si>
-    <t>Import
-Add
-Filters</t>
-  </si>
-  <si>
-    <t>Top displayed text is Import
-Add
-Filters</t>
-  </si>
-  <si>
     <t>PERMNS_041_Verify_Import_Permission_As_Yes_In_Pricing</t>
   </si>
   <si>
@@ -356,16 +231,6 @@
     <t>PERMNS_044_Verify_Export_Permission_As_No_In_Discount Codes</t>
   </si>
   <si>
-    <t>Multi Edit
-Add
-Filters</t>
-  </si>
-  <si>
-    <t>Top displayed text is Multi Edit
-Add
-Filters</t>
-  </si>
-  <si>
     <t>PERMNS_044_Verify_Export_Permission_As_Yes_In_Non Standard Pricing</t>
   </si>
   <si>
@@ -378,12 +243,6 @@
   </si>
   <si>
     <t>PERMNS_045_Verify_Export_Permission_As_No_In_Non Standard Pricing</t>
-  </si>
-  <si>
-    <t>Pricing Rule Configurator</t>
-  </si>
-  <si>
-    <t>Top displayed text is Pricing Rule Configurator</t>
   </si>
   <si>
     <t>PERMNS_046_Verify_Pricing_Permission_As_View</t>
@@ -419,9 +278,18 @@
     <t>PERMNS_049_Verify_Repair Request_Permission_As_None</t>
   </si>
   <si>
+    <t>Top displayed text is Sorry, you do not have permissions to access this page.</t>
+  </si>
+  <si>
     <t>PERMNS_050_Verify_Repair Request_Permission_As_View</t>
   </si>
   <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>Top displayed text is Filters</t>
+  </si>
+  <si>
     <t>PERMNS_051_Verify_Add To Quote_Permission_As_Yes_In_Repairs</t>
   </si>
   <si>
@@ -431,423 +299,140 @@
     <t>In Item displayed button is Add items to quote</t>
   </si>
   <si>
-    <t>PRICING_001_VerifyAddProduct</t>
-  </si>
-  <si>
-    <t>114315126525103</t>
-  </si>
-  <si>
-    <t>PricingPage</t>
-  </si>
-  <si>
-    <t>PRICING_002_VerifyUpdateProduct</t>
-  </si>
-  <si>
-    <t>before update List Price is 112.18</t>
-  </si>
-  <si>
-    <t>after update List Price is 122.18</t>
-  </si>
-  <si>
-    <t>PRICING_003_VerifyAddDiscountCode</t>
-  </si>
-  <si>
-    <t>DC114403404045879</t>
-  </si>
-  <si>
-    <t>PRICING_004_VerifyUpdateDiscountCode</t>
-  </si>
-  <si>
-    <t>before update Our Price value is 3.11</t>
-  </si>
-  <si>
-    <t>after update Our Price value is 4.17</t>
-  </si>
-  <si>
-    <t>PRICING_005_VerifyImport</t>
-  </si>
-  <si>
-    <t>Imported Data Successfully</t>
-  </si>
-  <si>
-    <t>PRICING_012_VerifyAddProduct_DuplicateStockCode</t>
-  </si>
-  <si>
-    <t>The Stock Code already exists.</t>
-  </si>
-  <si>
-    <t>PRICING_013_VerifyAddProduct_EmptyStockCode</t>
-  </si>
-  <si>
-    <t>Please enter Stock Code</t>
-  </si>
-  <si>
-    <t>PRICING_014_VerifyAddProduct_EmptyDiscountCode</t>
-  </si>
-  <si>
-    <t>Please select Discount Code</t>
-  </si>
-  <si>
-    <t>PRICING_015_VerifyAddProduct_EmptyListPrice</t>
-  </si>
-  <si>
-    <t>Please enter List Price</t>
-  </si>
-  <si>
-    <t>PRICING_016_VerifyAddProduct_InvalidListPrice</t>
-  </si>
-  <si>
-    <t>Please enter valid number</t>
-  </si>
-  <si>
-    <t>PRICING_017_VerifyAddProduct_EmptyProductClass</t>
-  </si>
-  <si>
-    <t>Please select Product Class</t>
-  </si>
-  <si>
-    <t>PRICING_018_VerifyUpdateProduct_EmptyListPrice</t>
-  </si>
-  <si>
-    <t>PRICING_019_VerifyUpdateProduct_InvalidListPrice</t>
-  </si>
-  <si>
-    <t>PRICING_020_Verify_isDifferentPricing_CheckBox_InVendors</t>
-  </si>
-  <si>
-    <t>is different pricing option  not applied</t>
-  </si>
-  <si>
-    <t>This Vendor having Different Pricing By Branch</t>
-  </si>
-  <si>
-    <t>QUOTES_001_VerifyCreateQuote</t>
-  </si>
-  <si>
-    <t>#2023053100048
-OPEN</t>
-  </si>
-  <si>
-    <t>OPEN</t>
-  </si>
-  <si>
-    <t>QuotesPage</t>
-  </si>
-  <si>
-    <t>QUOTES_002_VerifySelectItemToQuote</t>
-  </si>
-  <si>
-    <t>Quote Items (0)</t>
-  </si>
-  <si>
-    <t>Quote Items (1)</t>
-  </si>
-  <si>
-    <t>QUOTES_003_VerifySubmitForInternalApproval</t>
-  </si>
-  <si>
-    <t>#2023053100050
-PENDING APPROVAL</t>
-  </si>
-  <si>
-    <t>PENDING APPROVAL</t>
-  </si>
-  <si>
-    <t>QUOTES_004_VerifyApproveButton</t>
-  </si>
-  <si>
-    <t>#2023053100051
-APPROVED</t>
-  </si>
-  <si>
-    <t>APPROVED</t>
-  </si>
-  <si>
-    <t>QUOTES_005_VerifySubmitForCustomerApproval</t>
-  </si>
-  <si>
-    <t>#2023053100052
-DELIVERED TO CUSTOMER</t>
-  </si>
-  <si>
-    <t>DELIVERED TO CUSTOMER</t>
-  </si>
-  <si>
-    <t>QUOTES_006_VerifyQuoteWon</t>
-  </si>
-  <si>
-    <t>#2023053100053
-Option 1
-WON</t>
-  </si>
-  <si>
-    <t>WON</t>
-  </si>
-  <si>
-    <t>QUOTES_007_VerifyQuoteLost</t>
-  </si>
-  <si>
-    <t>#2023053100054
-LOST</t>
-  </si>
-  <si>
-    <t>LOST</t>
-  </si>
-  <si>
-    <t>QUOTES_008_VerifyReviseQuote</t>
-  </si>
-  <si>
-    <t>#2023053100055
-V2
-OPEN</t>
-  </si>
-  <si>
-    <t>V2
-OPEN</t>
-  </si>
-  <si>
-    <t>QUOTES_009_VerifyPrintFunctionality</t>
-  </si>
-  <si>
-    <t>Print working in Quotes Detailed Page.</t>
-  </si>
-  <si>
-    <t>QUOTES_010_VerifySearchByQuoteId</t>
-  </si>
-  <si>
-    <t>No Quotes for Parts Found! for QUOTES_010_VerifySearchByQuoteId</t>
-  </si>
-  <si>
-    <t>2023031500024</t>
-  </si>
-  <si>
-    <t>QUOTES_011_VerifySearchByCompanyName</t>
-  </si>
-  <si>
-    <t>123 E Doty Corporation</t>
-  </si>
-  <si>
-    <t>QUOTES_012_VerifySearchBySalesPersonName</t>
-  </si>
-  <si>
-    <t>No Quotes for Parts Found! for QUOTES_012_VerifySearchBySalesPersonName</t>
-  </si>
-  <si>
-    <t>Ramsay Taiym</t>
-  </si>
-  <si>
-    <t>QUOTES_013_VerifySearchByEmail</t>
-  </si>
-  <si>
-    <t>No Quotes for Parts Found! for QUOTES_013_VerifySearchByEmail</t>
-  </si>
-  <si>
-    <t>pete.soto@motion-ind.com</t>
-  </si>
-  <si>
-    <t>QUOTES_014_VerifyFiltersInQuotesListView</t>
-  </si>
-  <si>
-    <t>No Quotes for Parts Found!</t>
-  </si>
-  <si>
-    <t>QUOTES_015_VerifyFiltersStateMaintanance</t>
-  </si>
-  <si>
-    <t>Filter State Maintanance working.</t>
-  </si>
-  <si>
-    <t>QUOTES_016_VerifyResetandClearButtonInFiltersPage</t>
-  </si>
-  <si>
-    <t>Search By Company Name</t>
-  </si>
-  <si>
-    <t>QUOTES_017_VerifyReOpen_ButtonInQuoteDetailePage</t>
-  </si>
-  <si>
-    <t>#2023053100058
-OPEN</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>QUOTES_018_VerifyClose_ButtonInQuoteDetailePage</t>
-  </si>
-  <si>
-    <t>#2023053100059
-CLOSED</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>QUOTES_019_VerifyDeleteIconInQuoteItems</t>
-  </si>
-  <si>
-    <t>QUOTES_020_VerifyEditIconInQuoteItems</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>QUOTES_021_Verify_AddOptionInQuoteDetailedView</t>
-  </si>
-  <si>
-    <t>Option 2</t>
-  </si>
-  <si>
-    <t>QUOTES_022_VerifyQuoteClone_QuotesForParts</t>
-  </si>
-  <si>
-    <t>#2023053100064
-OPEN</t>
-  </si>
-  <si>
-    <t>QUOTES_023_VerifyQuoteClone_QuotesForRepairs</t>
-  </si>
-  <si>
-    <t>Quote Type is Parts Quote</t>
-  </si>
-  <si>
-    <t>Quote status is #2023053100066
-OPEN</t>
-  </si>
-  <si>
-    <t>QUOTES_024_Verify_Decline_QuotesForParts</t>
-  </si>
-  <si>
-    <t>#2023053100067
-REJECTED</t>
-  </si>
-  <si>
-    <t>REJECTED</t>
-  </si>
-  <si>
-    <t>REPAIRS_001_VerifyCreateRMA</t>
-  </si>
-  <si>
-    <t>#000200
-CHECK IN PENDING</t>
-  </si>
-  <si>
-    <t>CHECK IN PENDING</t>
-  </si>
-  <si>
-    <t>RepairsPage</t>
-  </si>
-  <si>
-    <t>REPAIRS_002_VerifySelectItemToRepair</t>
-  </si>
-  <si>
-    <t>Repair Items (0)</t>
-  </si>
-  <si>
-    <t>Repair Items (1)</t>
-  </si>
-  <si>
-    <t>REPAIRS_003_VerifyAddNewItem</t>
-  </si>
-  <si>
-    <t>REPAIRS_004_VerifyAssignLocation</t>
-  </si>
-  <si>
-    <t>#000203
-CHECKED-IN</t>
-  </si>
-  <si>
-    <t>CHECKED-IN</t>
-  </si>
-  <si>
-    <t>REPAIRS_005_VerifyAssignTechnician</t>
-  </si>
-  <si>
-    <t>#000204
-PENDING EVALUATION</t>
-  </si>
-  <si>
-    <t>PENDING EVALUATION</t>
-  </si>
-  <si>
-    <t>REPAIRS_006_VerifyEvaluateItem</t>
-  </si>
-  <si>
-    <t>#000205
-PENDING QUOTE</t>
-  </si>
-  <si>
-    <t>PENDING QUOTE</t>
-  </si>
-  <si>
-    <t>REPAIRS_007_VerifyAddRepairableItemToQuote</t>
-  </si>
-  <si>
-    <t>#000206
-ADDED TO QUOTE</t>
-  </si>
-  <si>
-    <t>ADDED TO QUOTE</t>
-  </si>
-  <si>
-    <t>REPAIRS_008_VerifyCreateQuoteFromRepair</t>
-  </si>
-  <si>
-    <t>#2023053100044
-OPEN</t>
-  </si>
-  <si>
-    <t>REPAIRS_009_VerifyAssignToQC</t>
-  </si>
-  <si>
-    <t>#000208
-PENDING QC</t>
-  </si>
-  <si>
-    <t>PENDING QC</t>
-  </si>
-  <si>
-    <t>REPAIRS_010_VerifyQCCheckList</t>
-  </si>
-  <si>
-    <t>#000209
-COMPLETED</t>
-  </si>
-  <si>
-    <t>COMPLETED</t>
-  </si>
-  <si>
-    <t>REPAIRS_011_VerifyQCCheckListStatusAsFail</t>
-  </si>
-  <si>
-    <t>QC FAILED</t>
-  </si>
-  <si>
-    <t>REPAIRS_012_VerifyFileUpload</t>
-  </si>
-  <si>
-    <t>Documents
-Upload
-000211-1.png
-Uploaded Successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Documents Not Available</t>
-  </si>
-  <si>
-    <t>REPAIRS_013_VerifyFilters</t>
-  </si>
-  <si>
-    <t>123 E Doty Corporation Dallas House CHECK IN PENDING</t>
-  </si>
-  <si>
-    <t>123 E Doty Corporation Dallas House Check In Pending</t>
-  </si>
-  <si>
-    <t>REPAIRS_014_VerifyFilterStateMaintanance</t>
-  </si>
-  <si>
-    <t>filters  are stabled after refresh the page</t>
+    <t>PERMNS_052_Verify_Add To Quote_Permission_As_No_In_Repairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Item displayed button is </t>
+  </si>
+  <si>
+    <t>PERMNS_053_Verify_QuoteForParts_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_054_Verify_QuoteForParts_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_071_Verify_Inventory_Permission_As_None</t>
+  </si>
+  <si>
+    <t>Top displayed text is Search with Stock Code</t>
+  </si>
+  <si>
+    <t>PERMNS_072_Verify_Inventory_Permission_As_View</t>
+  </si>
+  <si>
+    <t>Top displayed text is option CMT-G01, selected.
+CMT-G01</t>
+  </si>
+  <si>
+    <t>PERMNS_073_Verify_Jobs_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_074_Verify_Jobs_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_075_Verify_Orders_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_076_Verify_Part Purchase_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_077_Part Purchase_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_078_Verify_Organizations_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_079_Verify_Organizations_Permission_As_View</t>
+  </si>
+  <si>
+    <t>Sync
+Export
+Filters</t>
+  </si>
+  <si>
+    <t>Top displayed text is Sync
+Export
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_080_Verify_Contacts_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_081_Verify_Contacts_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_082_Verify_Export_Permission_As_Yes_Contacts</t>
+  </si>
+  <si>
+    <t>Top displayed text is Save View
+Export
+Filters</t>
+  </si>
+  <si>
+    <t>Save View
+Export
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_083_Verify_Export_Permission_As_No_Contacts</t>
+  </si>
+  <si>
+    <t>Top displayed text is Save View
+Filters</t>
+  </si>
+  <si>
+    <t>Save View
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_084_Verify_Export_Permission_As_No_Organizations</t>
+  </si>
+  <si>
+    <t>PERMNS_085_Verify_Export_Permission_As_Yes_Organizations</t>
+  </si>
+  <si>
+    <t>PERMNS_086_Verify_Sync_Permission_As_Yes_Contacts</t>
+  </si>
+  <si>
+    <t>Top displayed text is Save View
+Sync
+Export
+Filters</t>
+  </si>
+  <si>
+    <t>Save View
+Sync
+Export
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_087_Verify_Sync_Permission_As_No_Contacts</t>
+  </si>
+  <si>
+    <t>PERMNS_088_Verify_Sync_Permission_As_Yes_Organizations</t>
+  </si>
+  <si>
+    <t>PERMNS_089_Verify_Sync_Permission_As_No_Organizations</t>
+  </si>
+  <si>
+    <t>PERMNS_090_Verify_Sync_Permission_As_No_Warehouse</t>
+  </si>
+  <si>
+    <t>PERMNS_091_Verify_Sync_Permission_As_Yes_Warehouse</t>
+  </si>
+  <si>
+    <t>PERMNS_092_Verify_Sync_Permission_As_No_ProductClass</t>
+  </si>
+  <si>
+    <t>Top displayed text is Filters
+Sync</t>
+  </si>
+  <si>
+    <t>Filters
+Sync</t>
+  </si>
+  <si>
+    <t>PERMNS_093_Verify_Sync_Permission_As_Yes_ProductClass</t>
   </si>
 </sst>
 </file>
@@ -909,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -944,6 +529,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -956,6 +543,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -969,70 +565,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1086,7 +635,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1100,7 +649,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1120,13 +669,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -1140,7 +689,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1160,13 +709,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -1180,13 +729,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1200,7 +749,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1220,7 +769,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1240,13 +789,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1260,7 +809,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1280,13 +829,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -1300,13 +849,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -1320,7 +869,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1340,13 +889,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1360,7 +909,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1380,7 +929,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1400,13 +949,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1420,13 +969,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -1440,13 +989,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1460,13 +1009,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1480,13 +1029,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1500,13 +1049,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -1520,13 +1069,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -1540,13 +1089,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1560,13 +1109,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1580,13 +1129,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1600,13 +1149,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -1620,13 +1169,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1640,13 +1189,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1660,13 +1209,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1680,13 +1229,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1700,19 +1249,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="E34" t="s">
-        <v>64</v>
+      <c r="E34" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -1720,13 +1269,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1740,19 +1289,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="E36" t="s" s="1">
-        <v>10</v>
+      <c r="E36" t="s">
+        <v>51</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -1760,13 +1309,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1780,13 +1329,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -1800,13 +1349,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1820,7 +1369,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
         <v>56</v>
@@ -1840,7 +1389,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
         <v>56</v>
@@ -1860,13 +1409,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -1880,13 +1429,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1900,13 +1449,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1920,13 +1469,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -1940,19 +1489,19 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
       </c>
-      <c r="E46" t="s">
-        <v>64</v>
+      <c r="E46" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -1960,13 +1509,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1980,13 +1529,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -2000,13 +1549,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -2020,13 +1569,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -2040,13 +1589,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -2060,13 +1609,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -2080,13 +1629,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
@@ -2100,13 +1649,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -2120,13 +1669,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
@@ -2140,13 +1689,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
@@ -2160,19 +1709,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
       </c>
-      <c r="E57" t="s" s="1">
-        <v>10</v>
+      <c r="E57" t="s">
+        <v>51</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
@@ -2180,13 +1729,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -2200,13 +1749,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -2220,10 +1769,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
@@ -2240,13 +1789,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -2260,13 +1809,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -2280,13 +1829,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
@@ -2300,16 +1849,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="D64" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s" s="1">
         <v>10</v>
@@ -2320,16 +1869,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C65" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s" s="1">
         <v>10</v>
@@ -2340,16 +1889,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s" s="1">
         <v>10</v>
@@ -2360,16 +1909,16 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s" s="1">
         <v>10</v>
@@ -2380,16 +1929,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D68" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s" s="1">
         <v>10</v>
@@ -2400,16 +1949,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s" s="1">
         <v>10</v>
@@ -2420,19 +1969,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="D70" t="s">
-        <v>120</v>
-      </c>
-      <c r="E70" t="s" s="1">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>51</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
@@ -2440,16 +1989,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="D71" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s" s="1">
         <v>10</v>
@@ -2460,16 +2009,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="E72" t="s" s="1">
         <v>10</v>
@@ -2480,16 +2029,16 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s" s="1">
         <v>10</v>
@@ -2500,16 +2049,16 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="D74" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s" s="1">
         <v>10</v>
@@ -2520,16 +2069,16 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="D75" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="E75" t="s" s="1">
         <v>10</v>
@@ -2540,16 +2089,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s" s="1">
         <v>10</v>
@@ -2560,19 +2109,19 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B77" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F77" t="s">
         <v>11</v>
@@ -2580,19 +2129,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E78" t="s" s="1">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>51</v>
       </c>
       <c r="F78" t="s">
         <v>11</v>
@@ -2600,741 +2149,21 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>151</v>
-      </c>
-      <c r="E79" t="s" s="1">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>51</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80" t="s">
-        <v>156</v>
-      </c>
-      <c r="C80" t="s">
-        <v>157</v>
-      </c>
-      <c r="D80" t="s">
-        <v>151</v>
-      </c>
-      <c r="E80" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F80" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>158</v>
-      </c>
-      <c r="B81" t="s">
-        <v>159</v>
-      </c>
-      <c r="C81" t="s">
-        <v>160</v>
-      </c>
-      <c r="D81" t="s">
-        <v>151</v>
-      </c>
-      <c r="E81" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" t="s">
-        <v>163</v>
-      </c>
-      <c r="D82" t="s">
-        <v>151</v>
-      </c>
-      <c r="E82" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" t="s">
-        <v>165</v>
-      </c>
-      <c r="C83" t="s">
-        <v>166</v>
-      </c>
-      <c r="D83" t="s">
-        <v>151</v>
-      </c>
-      <c r="E83" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>167</v>
-      </c>
-      <c r="B84" t="s">
-        <v>168</v>
-      </c>
-      <c r="C84" t="s">
-        <v>169</v>
-      </c>
-      <c r="D84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E84" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>170</v>
-      </c>
-      <c r="B85" t="s">
-        <v>171</v>
-      </c>
-      <c r="C85" t="s">
-        <v>172</v>
-      </c>
-      <c r="D85" t="s">
-        <v>151</v>
-      </c>
-      <c r="E85" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>173</v>
-      </c>
-      <c r="B86" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" t="s">
-        <v>112</v>
-      </c>
-      <c r="D86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E86" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>175</v>
-      </c>
-      <c r="B87" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" t="s">
-        <v>177</v>
-      </c>
-      <c r="D87" t="s">
-        <v>151</v>
-      </c>
-      <c r="E87" t="s">
-        <v>64</v>
-      </c>
-      <c r="F87" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" t="s">
-        <v>179</v>
-      </c>
-      <c r="C88" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88" t="s">
-        <v>151</v>
-      </c>
-      <c r="E88" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>180</v>
-      </c>
-      <c r="B89" t="s">
-        <v>181</v>
-      </c>
-      <c r="C89" t="s">
-        <v>182</v>
-      </c>
-      <c r="D89" t="s">
-        <v>151</v>
-      </c>
-      <c r="E89" t="s">
-        <v>64</v>
-      </c>
-      <c r="F89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>183</v>
-      </c>
-      <c r="B90" t="s">
-        <v>184</v>
-      </c>
-      <c r="C90" t="s">
-        <v>185</v>
-      </c>
-      <c r="D90" t="s">
-        <v>151</v>
-      </c>
-      <c r="E90" t="s">
-        <v>64</v>
-      </c>
-      <c r="F90" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>186</v>
-      </c>
-      <c r="B91" t="s">
-        <v>187</v>
-      </c>
-      <c r="C91" t="s">
-        <v>112</v>
-      </c>
-      <c r="D91" t="s">
-        <v>151</v>
-      </c>
-      <c r="E91" t="s">
-        <v>64</v>
-      </c>
-      <c r="F91" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>188</v>
-      </c>
-      <c r="B92" t="s">
-        <v>189</v>
-      </c>
-      <c r="C92" t="s">
-        <v>112</v>
-      </c>
-      <c r="D92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>190</v>
-      </c>
-      <c r="B93" t="s">
-        <v>191</v>
-      </c>
-      <c r="C93" t="s">
-        <v>112</v>
-      </c>
-      <c r="D93" t="s">
-        <v>151</v>
-      </c>
-      <c r="E93" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>192</v>
-      </c>
-      <c r="B94" t="s">
-        <v>193</v>
-      </c>
-      <c r="C94" t="s">
-        <v>194</v>
-      </c>
-      <c r="D94" t="s">
-        <v>151</v>
-      </c>
-      <c r="E94" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>195</v>
-      </c>
-      <c r="B95" t="s">
-        <v>196</v>
-      </c>
-      <c r="C95" t="s">
-        <v>197</v>
-      </c>
-      <c r="D95" t="s">
-        <v>151</v>
-      </c>
-      <c r="E95" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>198</v>
-      </c>
-      <c r="B96" t="s">
-        <v>154</v>
-      </c>
-      <c r="C96" t="s">
-        <v>153</v>
-      </c>
-      <c r="D96" t="s">
-        <v>151</v>
-      </c>
-      <c r="E96" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>199</v>
-      </c>
-      <c r="B97" t="s">
-        <v>200</v>
-      </c>
-      <c r="C97" t="s">
-        <v>200</v>
-      </c>
-      <c r="D97" t="s">
-        <v>151</v>
-      </c>
-      <c r="E97" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F97" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>201</v>
-      </c>
-      <c r="B98" t="s">
-        <v>202</v>
-      </c>
-      <c r="C98" t="s">
-        <v>202</v>
-      </c>
-      <c r="D98" t="s">
-        <v>151</v>
-      </c>
-      <c r="E98" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>203</v>
-      </c>
-      <c r="B99" t="s">
-        <v>204</v>
-      </c>
-      <c r="C99" t="s">
-        <v>150</v>
-      </c>
-      <c r="D99" t="s">
-        <v>151</v>
-      </c>
-      <c r="E99" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F99" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>205</v>
-      </c>
-      <c r="B100" t="s">
-        <v>206</v>
-      </c>
-      <c r="C100" t="s">
-        <v>207</v>
-      </c>
-      <c r="D100" t="s">
-        <v>151</v>
-      </c>
-      <c r="E100" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F100" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>208</v>
-      </c>
-      <c r="B101" t="s">
-        <v>209</v>
-      </c>
-      <c r="C101" t="s">
-        <v>210</v>
-      </c>
-      <c r="D101" t="s">
-        <v>151</v>
-      </c>
-      <c r="E101" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F101" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>211</v>
-      </c>
-      <c r="B102" t="s">
-        <v>212</v>
-      </c>
-      <c r="C102" t="s">
-        <v>213</v>
-      </c>
-      <c r="D102" t="s">
-        <v>214</v>
-      </c>
-      <c r="E102" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>215</v>
-      </c>
-      <c r="B103" t="s">
-        <v>216</v>
-      </c>
-      <c r="C103" t="s">
-        <v>217</v>
-      </c>
-      <c r="D103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E103" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F103" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>218</v>
-      </c>
-      <c r="B104" t="s">
-        <v>216</v>
-      </c>
-      <c r="C104" t="s">
-        <v>217</v>
-      </c>
-      <c r="D104" t="s">
-        <v>214</v>
-      </c>
-      <c r="E104" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F104" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>219</v>
-      </c>
-      <c r="B105" t="s">
-        <v>220</v>
-      </c>
-      <c r="C105" t="s">
-        <v>221</v>
-      </c>
-      <c r="D105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E105" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F105" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>222</v>
-      </c>
-      <c r="B106" t="s">
-        <v>223</v>
-      </c>
-      <c r="C106" t="s">
-        <v>224</v>
-      </c>
-      <c r="D106" t="s">
-        <v>214</v>
-      </c>
-      <c r="E106" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F106" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>225</v>
-      </c>
-      <c r="B107" t="s">
-        <v>226</v>
-      </c>
-      <c r="C107" t="s">
-        <v>227</v>
-      </c>
-      <c r="D107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E107" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F107" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>228</v>
-      </c>
-      <c r="B108" t="s">
-        <v>229</v>
-      </c>
-      <c r="C108" t="s">
-        <v>230</v>
-      </c>
-      <c r="D108" t="s">
-        <v>214</v>
-      </c>
-      <c r="E108" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>231</v>
-      </c>
-      <c r="B109" t="s">
-        <v>232</v>
-      </c>
-      <c r="C109" t="s">
-        <v>150</v>
-      </c>
-      <c r="D109" t="s">
-        <v>214</v>
-      </c>
-      <c r="E109" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F109" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>233</v>
-      </c>
-      <c r="B110" t="s">
-        <v>234</v>
-      </c>
-      <c r="C110" t="s">
-        <v>235</v>
-      </c>
-      <c r="D110" t="s">
-        <v>214</v>
-      </c>
-      <c r="E110" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F110" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>236</v>
-      </c>
-      <c r="B111" t="s">
-        <v>237</v>
-      </c>
-      <c r="C111" t="s">
-        <v>238</v>
-      </c>
-      <c r="D111" t="s">
-        <v>214</v>
-      </c>
-      <c r="E111" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F111" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>239</v>
-      </c>
-      <c r="B112" t="s">
-        <v>240</v>
-      </c>
-      <c r="C112" t="s">
-        <v>240</v>
-      </c>
-      <c r="D112" t="s">
-        <v>214</v>
-      </c>
-      <c r="E112" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F112" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>241</v>
-      </c>
-      <c r="B113" t="s">
-        <v>242</v>
-      </c>
-      <c r="C113" t="s">
-        <v>243</v>
-      </c>
-      <c r="D113" t="s">
-        <v>214</v>
-      </c>
-      <c r="E113" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F113" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>244</v>
-      </c>
-      <c r="B114" t="s">
-        <v>245</v>
-      </c>
-      <c r="C114" t="s">
-        <v>246</v>
-      </c>
-      <c r="D114" t="s">
-        <v>214</v>
-      </c>
-      <c r="E114" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>247</v>
-      </c>
-      <c r="B115" t="s">
-        <v>248</v>
-      </c>
-      <c r="C115" t="s">
-        <v>112</v>
-      </c>
-      <c r="D115" t="s">
-        <v>214</v>
-      </c>
-      <c r="E115" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F115" t="s">
         <v>11</v>
       </c>
     </row>

--- a/InternalPortal/tcfile.xlsx
+++ b/InternalPortal/tcfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="174">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>2023-06-01</t>
+    <t>2023-06-06</t>
   </si>
   <si>
     <t>PERMNS_002_Verify_Branches_Permission_As_None</t>
@@ -197,6 +197,16 @@
     <t>PERMNS_040_Verify_Export_Permission_As_NoIn_Pricing</t>
   </si>
   <si>
+    <t>Import
+Add
+Filters</t>
+  </si>
+  <si>
+    <t>Top displayed text is Import
+Add
+Filters</t>
+  </si>
+  <si>
     <t>PERMNS_041_Verify_Import_Permission_As_Yes_In_Pricing</t>
   </si>
   <si>
@@ -231,6 +241,16 @@
     <t>PERMNS_044_Verify_Export_Permission_As_No_In_Discount Codes</t>
   </si>
   <si>
+    <t>Multi Edit
+Add
+Filters</t>
+  </si>
+  <si>
+    <t>Top displayed text is Multi Edit
+Add
+Filters</t>
+  </si>
+  <si>
     <t>PERMNS_044_Verify_Export_Permission_As_Yes_In_Non Standard Pricing</t>
   </si>
   <si>
@@ -243,6 +263,12 @@
   </si>
   <si>
     <t>PERMNS_045_Verify_Export_Permission_As_No_In_Non Standard Pricing</t>
+  </si>
+  <si>
+    <t>Pricing Rule Configurator</t>
+  </si>
+  <si>
+    <t>Top displayed text is Pricing Rule Configurator</t>
   </si>
   <si>
     <t>PERMNS_046_Verify_Pricing_Permission_As_View</t>
@@ -311,6 +337,130 @@
     <t>PERMNS_054_Verify_QuoteForParts_Permission_As_View</t>
   </si>
   <si>
+    <t>PERMNS_055_Verify_CreateSalesOrder_Permission_As_No_Quotes</t>
+  </si>
+  <si>
+    <t>PERMNS_056_Verify_CreateSalesOrder_Permission_As_Yes_Quotes</t>
+  </si>
+  <si>
+    <t>Create Sales Order</t>
+  </si>
+  <si>
+    <t>Top displayed text is Create Sales Order</t>
+  </si>
+  <si>
+    <t>PERMNS_057_Verify_QuoteClose_Permission_As_No_Quotes</t>
+  </si>
+  <si>
+    <t>Re Open</t>
+  </si>
+  <si>
+    <t>Top displayed text is Re Open</t>
+  </si>
+  <si>
+    <t>PERMNS_058_Verify_QuoteClose_Permission_As_Yes_Quotes</t>
+  </si>
+  <si>
+    <t>Re Open
+Close</t>
+  </si>
+  <si>
+    <t>Top displayed text is Re Open
+Close</t>
+  </si>
+  <si>
+    <t>PERMNS_059_Verify_Edit_IIDM_Cost_Permission_As_No_Quotes</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Top displayed text is true</t>
+  </si>
+  <si>
+    <t>PERMNS_060_Verify_Edit_IIDM_Cost_Permission_As_Yes_Quotes</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Top displayed text is null</t>
+  </si>
+  <si>
+    <t>PERMNS_061_Verify_ReOpen_Permission_As_No_Quotes</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Top displayed text is Close</t>
+  </si>
+  <si>
+    <t>PERMNS_062_Verify_ReOpen_Permission_As_Yes_Quotes</t>
+  </si>
+  <si>
+    <t>PERMNS_063_Verify_ReviseQuote_Permission_As_No_Quotes</t>
+  </si>
+  <si>
+    <t>Submit for Customer Approval</t>
+  </si>
+  <si>
+    <t>Top displayed text is Submit for Customer Approval</t>
+  </si>
+  <si>
+    <t>PERMNS_064_Verify_ReviseQuote_Permission_As_Yes_Quotes</t>
+  </si>
+  <si>
+    <t>Revise Quote
+Submit for Customer Approval</t>
+  </si>
+  <si>
+    <t>Top displayed text is Revise Quote
+Submit for Customer Approval</t>
+  </si>
+  <si>
+    <t>PERMNS_065_Verify_Send To Customer_Permission_As_No_Quotes</t>
+  </si>
+  <si>
+    <t>Revise Quote</t>
+  </si>
+  <si>
+    <t>Top displayed text is Revise Quote</t>
+  </si>
+  <si>
+    <t>PERMNS_066_Verify_Send To Customer_Permission_As_Yes_Quotes</t>
+  </si>
+  <si>
+    <t>PERMNS_067_Verify_Pay Terms_Permission_As_No_Quotes</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Top displayed text is 6</t>
+  </si>
+  <si>
+    <t>PERMNS_068_Verify_Pay Terms__Permission_As_Yes_Quotes</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Top displayed text is 32</t>
+  </si>
+  <si>
+    <t>PERMNS_069_Verify_Quote Approval Limit__Permission_As_None_Quotes</t>
+  </si>
+  <si>
+    <t>PERMNS_070	_Verify_Quote Approval Limit__Permission_As_$50k and above_Quotes</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>Top displayed text is Approve</t>
+  </si>
+  <si>
     <t>PERMNS_071_Verify_Inventory_Permission_As_None</t>
   </si>
   <si>
@@ -389,9 +539,6 @@
   </si>
   <si>
     <t>PERMNS_085_Verify_Export_Permission_As_Yes_Organizations</t>
-  </si>
-  <si>
-    <t>PERMNS_086_Verify_Sync_Permission_As_Yes_Contacts</t>
   </si>
   <si>
     <t>Top displayed text is Save View
@@ -403,6 +550,19 @@
     <t>Save View
 Sync
 Export
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_086_Verify_Sync_Permission_As_Yes_Contacts</t>
+  </si>
+  <si>
+    <t>Top displayed text is Save View
+Sync
+Filters</t>
+  </si>
+  <si>
+    <t>Save View
+Sync
 Filters</t>
   </si>
   <si>
@@ -494,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -552,6 +712,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -565,7 +741,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -581,7 +757,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1392,10 +1568,10 @@
         <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1409,7 +1585,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
@@ -1429,13 +1605,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1449,13 +1625,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1469,13 +1645,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -1489,13 +1665,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1509,13 +1685,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1529,13 +1705,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1549,13 +1725,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1569,10 +1745,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
@@ -1589,13 +1765,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1609,13 +1785,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1629,13 +1805,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
@@ -1649,13 +1825,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -1669,13 +1845,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
@@ -1689,13 +1865,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
@@ -1709,19 +1885,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
       </c>
-      <c r="E57" t="s">
-        <v>51</v>
+      <c r="E57" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
@@ -1729,13 +1905,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -1749,13 +1925,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -1769,13 +1945,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -1789,13 +1965,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="C61" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -1809,13 +1985,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -1829,13 +2005,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
@@ -1849,13 +2025,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -1869,13 +2045,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -1889,13 +2065,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -1909,13 +2085,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -1929,13 +2105,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -1949,13 +2125,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -1969,19 +2145,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
       </c>
-      <c r="E70" t="s">
-        <v>51</v>
+      <c r="E70" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
@@ -1989,13 +2165,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -2009,13 +2185,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C72" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -2029,19 +2205,19 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
       </c>
-      <c r="E73" t="s" s="1">
-        <v>10</v>
+      <c r="E73" t="s">
+        <v>51</v>
       </c>
       <c r="F73" t="s">
         <v>11</v>
@@ -2049,13 +2225,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
@@ -2069,13 +2245,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -2089,13 +2265,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
@@ -2109,19 +2285,19 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
       </c>
-      <c r="E77" t="s">
-        <v>51</v>
+      <c r="E77" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F77" t="s">
         <v>11</v>
@@ -2129,19 +2305,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B78" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
-      <c r="E78" t="s">
-        <v>51</v>
+      <c r="E78" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F78" t="s">
         <v>11</v>
@@ -2149,21 +2325,341 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" t="s">
+        <v>149</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" t="s">
+        <v>161</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" t="s">
+        <v>164</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" t="s">
+        <v>154</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
         <v>51</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" t="s">
+        <v>172</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>51</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>173</v>
+      </c>
+      <c r="B95" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" t="s">
+        <v>88</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>51</v>
+      </c>
+      <c r="F95" t="s">
         <v>11</v>
       </c>
     </row>

--- a/InternalPortal/tcfile.xlsx
+++ b/InternalPortal/tcfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="393">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -32,10 +32,1027 @@
     <t>Date</t>
   </si>
   <si>
+    <t>ADMIN_001_Verify_Update_Account Types Name is H20</t>
+  </si>
+  <si>
+    <t>After Update InActive</t>
+  </si>
+  <si>
+    <t>Before Update Active</t>
+  </si>
+  <si>
+    <t>AdminPage</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
+    <t>ADMIN_002_Verify_Update_Branches Name is Baton Rouge</t>
+  </si>
+  <si>
+    <t>ADMIN_003_Verify_Update_Classifications Name is Test1672225082</t>
+  </si>
+  <si>
+    <t>ADMIN_004_Verify_Update_Contact Types Name is Test1672226772</t>
+  </si>
+  <si>
+    <t>ADMIN_005_Verify_Update_Industries Name is Material Handling</t>
+  </si>
+  <si>
+    <t>ADMIN_006_Verify_Update_Quote Types Name is System Quote</t>
+  </si>
+  <si>
+    <t>ADMIN_007_Verify_Update_Regions Name is region012</t>
+  </si>
+  <si>
+    <t>ADMIN_008_Verify_Update_Sales Potential Name is TestSales1671020821</t>
+  </si>
+  <si>
+    <t>ADMIN_009_Verify_Update_Territories Name is 101</t>
+  </si>
+  <si>
+    <t>ADMIN_010_Verify_Update_Vendors Name is 1ST CHOICE FIRE &amp; SAFETY</t>
+  </si>
+  <si>
+    <t>ADMIN_011_Verify_Update_Zip Codes Name is 000</t>
+  </si>
+  <si>
+    <t>ADMIN_012_Verify_Update_Quote Approval</t>
+  </si>
+  <si>
+    <t>Displayed Text is Updated Successfully</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ADMIN_013_Verify_Update_Terms Conditions</t>
+  </si>
+  <si>
+    <t>Check_ACCOUNT-TYPE_URLs_Redirects_To_Same_Or_Not_After_Logout_012</t>
+  </si>
+  <si>
+    <t>Actual URL is https://buzzworld-web-iidm.enterpi.com/quote_for_parts</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/account-type</t>
+  </si>
+  <si>
+    <t>ACCOUNT-TYPE</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Check_BRANCHES_URLs_Redirects_To_Same_Or_Not_After_Logout_013</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/branches</t>
+  </si>
+  <si>
+    <t>BRANCHES</t>
+  </si>
+  <si>
+    <t>Check_CLASSIFICATION_URLs_Redirects_To_Same_Or_Not_After_Logout_014</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/classification</t>
+  </si>
+  <si>
+    <t>CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>Check_CONTACT_TYPES_URLs_Redirects_To_Same_Or_Not_After_Logout_015</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/contact_types</t>
+  </si>
+  <si>
+    <t>CONTACT_TYPES</t>
+  </si>
+  <si>
+    <t>Check_CONTACTS_URLs_Redirects_To_Same_Or_Not_After_Logout_03</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/contacts</t>
+  </si>
+  <si>
+    <t>CONTACTS</t>
+  </si>
+  <si>
+    <t>Check_DISCOUNT-CODES_URLs_Redirects_To_Same_Or_Not_After_Logout_05</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/discount-codes</t>
+  </si>
+  <si>
+    <t>DISCOUNT-CODES</t>
+  </si>
+  <si>
+    <t>Check_INDUSTRY_URLs_Redirects_To_Same_Or_Not_After_Logout_016</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/industry</t>
+  </si>
+  <si>
+    <t>INDUSTRY</t>
+  </si>
+  <si>
+    <t>Check_INVENTORY_URLs_Redirects_To_Same_Or_Not_After_Logout_011</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/inventory</t>
+  </si>
+  <si>
+    <t>INVENTORY</t>
+  </si>
+  <si>
+    <t>Check_JOBS_URLs_Redirects_To_Same_Or_Not_After_Logout_08</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/jobs</t>
+  </si>
+  <si>
+    <t>JOBS</t>
+  </si>
+  <si>
+    <t>Check_ORDERS_URLs_Redirects_To_Same_Or_Not_After_Logout_09</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/orders</t>
+  </si>
+  <si>
+    <t>ORDERS</t>
+  </si>
+  <si>
+    <t>Check_ORGANIZATIONS_URLs_Redirects_To_Same_Or_Not_After_Logout_02</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/organizations</t>
+  </si>
+  <si>
+    <t>ORGANIZATIONS</t>
+  </si>
+  <si>
+    <t>Check_PART-PURCHASE_URLs_Redirects_To_Same_Or_Not_After_Logout_010</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/part-purchase</t>
+  </si>
+  <si>
+    <t>PART-PURCHASE</t>
+  </si>
+  <si>
+    <t>Check_PAST-DUE-INVOICES_URLs_Redirects_To_Same_Or_Not_After_Logout_031</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/past-due-invoices</t>
+  </si>
+  <si>
+    <t>PAST-DUE-INVOICES</t>
+  </si>
+  <si>
+    <t>Check_PO_MIN_QTY_URLs_Redirects_To_Same_Or_Not_After_Logout_017</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/po_min_qty</t>
+  </si>
+  <si>
+    <t>PO_MIN_QTY</t>
+  </si>
+  <si>
+    <t>Check_PRICING_URLs_Redirects_To_Same_Or_Not_After_Logout_04</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/pricing</t>
+  </si>
+  <si>
+    <t>PRICING</t>
+  </si>
+  <si>
+    <t>Check_PRODUCT_CLASS_URLs_Redirects_To_Same_Or_Not_After_Logout_018</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/product_class</t>
+  </si>
+  <si>
+    <t>PRODUCT_CLASS</t>
+  </si>
+  <si>
+    <t>Check_QC_CONTROL_URLs_Redirects_To_Same_Or_Not_After_Logout_019</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/qc_control</t>
+  </si>
+  <si>
+    <t>QC_CONTROL</t>
+  </si>
+  <si>
+    <t>Check_QUOTE_FOR_PARTS_URLs_Redirects_To_Same_Or_Not_After_Logout_01</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/quote_for_parts</t>
+  </si>
+  <si>
+    <t>QUOTE_FOR_PARTS</t>
+  </si>
+  <si>
+    <t>Check_QUOTE-APPROVAL_URLs_Redirects_To_Same_Or_Not_After_Logout_020</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/quote-approval</t>
+  </si>
+  <si>
+    <t>QUOTE-APPROVAL</t>
+  </si>
+  <si>
+    <t>Check_QUOTE-TYPE_URLs_Redirects_To_Same_Or_Not_After_Logout_021</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/quote-type</t>
+  </si>
+  <si>
+    <t>QUOTE-TYPE</t>
+  </si>
+  <si>
+    <t>Check_REGIONS_URLs_Redirects_To_Same_Or_Not_After_Logout_022</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/regions</t>
+  </si>
+  <si>
+    <t>REGIONS</t>
+  </si>
+  <si>
+    <t>Check_REPAIR-REQUEST_URLs_Redirects_To_Same_Or_Not_After_Logout_07</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/repair-request</t>
+  </si>
+  <si>
+    <t>REPAIR-REQUEST</t>
+  </si>
+  <si>
+    <t>Check_SALES_POTENTIAL_URLs_Redirects_To_Same_Or_Not_After_Logout_023</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/sales_potential</t>
+  </si>
+  <si>
+    <t>SALES_POTENTIAL</t>
+  </si>
+  <si>
+    <t>Check_SPECIAL-PRICING_URLs_Redirects_To_Same_Or_Not_After_Logout_06</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/special-pricing</t>
+  </si>
+  <si>
+    <t>SPECIAL-PRICING</t>
+  </si>
+  <si>
+    <t>Check_TERMS-CONDITIONS_URLs_Redirects_To_Same_Or_Not_After_Logout_024</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/terms-conditions</t>
+  </si>
+  <si>
+    <t>TERMS-CONDITIONS</t>
+  </si>
+  <si>
+    <t>Check_TERRITORY_URLs_Redirects_To_Same_Or_Not_After_Logout_025</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/territory</t>
+  </si>
+  <si>
+    <t>TERRITORY</t>
+  </si>
+  <si>
+    <t>Check_USER_ROLES_URLs_Redirects_To_Same_Or_Not_After_Logout_027</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/user_roles</t>
+  </si>
+  <si>
+    <t>USER_ROLES</t>
+  </si>
+  <si>
+    <t>Check_USERS_URLs_Redirects_To_Same_Or_Not_After_Logout_026</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/users</t>
+  </si>
+  <si>
+    <t>USERS</t>
+  </si>
+  <si>
+    <t>Check_VENDORS_URLs_Redirects_To_Same_Or_Not_After_Logout_028</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/vendors</t>
+  </si>
+  <si>
+    <t>VENDORS</t>
+  </si>
+  <si>
+    <t>Check_WAREHOUSE_URLs_Redirects_To_Same_Or_Not_After_Logout_029</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/warehouse</t>
+  </si>
+  <si>
+    <t>WAREHOUSE</t>
+  </si>
+  <si>
+    <t>Check_ZIPCODES_URLs_Redirects_To_Same_Or_Not_After_Logout_030</t>
+  </si>
+  <si>
+    <t>Expected URL is https://buzzworld-web-iidm.enterpi.com/zipcodes</t>
+  </si>
+  <si>
+    <t>ZIPCODES</t>
+  </si>
+  <si>
+    <t>PERMNS_001_Verify_AccountType_Permission_As_None</t>
+  </si>
+  <si>
+    <t>Sorry, you do not have permissions to access this page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top displayed text is </t>
+  </si>
+  <si>
+    <t>Permissions</t>
+  </si>
+  <si>
+    <t>2023-06-16</t>
+  </si>
+  <si>
+    <t>PERMNS_002_Verify_Branches_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_003_Verify_Classification_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_004_Verify_Industry_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_005_Verify_Po Min Qty_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_006_Verify_Product Class_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_007_Verify_QC Control_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_009_Verify_Quote Types_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_010_Verify_Regions_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_011_Verify_Sales Potential_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_012_Verify_Terms &amp; Conditions_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_013_Verify_Territories_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_014_Verify_User Roles_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_015_Verify_Vendors_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_016_Verify_Warehouse_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_017_Verify_Zip Codes_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_018_Verify_Account Type_Permission_As_View</t>
+  </si>
+  <si>
+    <t>actual displayed option is Filters</t>
+  </si>
+  <si>
+    <t>expected displayed option is Filters edit count is 0</t>
+  </si>
+  <si>
+    <t>PERMNS_020_Verify_Regions_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_021_Verify_Territories_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_022_Verify_Zip Codes_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_023_Verify_Warehouse_Permission_As_View</t>
+  </si>
+  <si>
+    <t>actual displayed option is Filters
+Sync</t>
+  </si>
+  <si>
+    <t>PERMNS_024_Verify_Classifications_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_025_Verify_Contact Types_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_026_Verify_Industries_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_027_Verify_PO Min Qty_Permission_As_View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual displayed option is </t>
+  </si>
+  <si>
+    <t>expected displayed option is  edit count is 0</t>
+  </si>
+  <si>
+    <t>PERMNS_028_Verify_Quote Types_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_029_Verify_Sales Potential_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_030_Verify_Vendors_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_031_Verify_Quote Approval_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_032_Verify_User Roles_Permission_As_View</t>
+  </si>
+  <si>
+    <t>actual displayed option is 0</t>
+  </si>
+  <si>
+    <t>expected displayed option is 0 edit count is 0</t>
+  </si>
+  <si>
+    <t>PERMNS_033_Verify_Terms &amp; Conditions_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_034_Verify_QC Control_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_035_Verify_AccountType_When_QC_Control_Permission_As_View</t>
+  </si>
+  <si>
+    <t>expected displayed option is Add edit count is 0</t>
+  </si>
+  <si>
+    <t>PERMNS_036_Verify_Pricing_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_037_Verify_Discount Codes_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_038_Verify_Non Standard Pricing_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_039_Verify_Export_Permission_As_Yes_In_Pricing</t>
+  </si>
+  <si>
+    <t>Default
+Import
+Export
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>Top displayed text is Default
+Import
+Export
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>PERMNS_040_Verify_Export_Permission_As_NoIn_Pricing</t>
+  </si>
+  <si>
+    <t>Default
+Import
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>Top displayed text is Default
+Import
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>PERMNS_041_Verify_Import_Permission_As_Yes_In_Pricing</t>
+  </si>
+  <si>
+    <t>PERMNS_042_Verify_Import_Permission_As_No_In_Pricing</t>
+  </si>
+  <si>
+    <t>Default
+Export
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>Top displayed text is Default
+Export
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>PERMNS_043_Verify_Export_Permission_As_Yes_In_Discount Codes</t>
+  </si>
+  <si>
+    <t>Default
+Multi Edit
+Export
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>Top displayed text is Default
+Multi Edit
+Export
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>PERMNS_044_Verify_Export_Permission_As_No_In_Discount Codes</t>
+  </si>
+  <si>
+    <t>Default
+Multi Edit
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>Top displayed text is Default
+Multi Edit
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>PERMNS_046_Verify_Pricing_Permission_As_View</t>
+  </si>
+  <si>
+    <t>Default
+Import
+Export
+Filters</t>
+  </si>
+  <si>
+    <t>Top displayed text is Default
+Import
+Export
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_047_Verify_Discount Codes_Permission_As_View</t>
+  </si>
+  <si>
+    <t>Default
+Export
+Filters</t>
+  </si>
+  <si>
+    <t>Top displayed text is Default
+Export
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_048_Verify_Non Standard Pricing_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_049_Verify_Repair Request_Permission_As_None</t>
+  </si>
+  <si>
+    <t>Top displayed text is Sorry, you do not have permissions to access this page.</t>
+  </si>
+  <si>
+    <t>PERMNS_050_Verify_Repair Request_Permission_As_View</t>
+  </si>
+  <si>
+    <t>Display All Items
+Filters</t>
+  </si>
+  <si>
+    <t>Top displayed text is Display All Items
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_051_Verify_Add To Quote_Permission_As_Yes_In_Repairs</t>
+  </si>
+  <si>
+    <t>Add items to quote</t>
+  </si>
+  <si>
+    <t>In Item displayed button is Add items to quote</t>
+  </si>
+  <si>
+    <t>PERMNS_052_Verify_Add To Quote_Permission_As_No_In_Repairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Item displayed button is </t>
+  </si>
+  <si>
+    <t>PERMNS_053_Verify_QuoteForParts_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_054_Verify_QuoteForParts_Permission_As_View</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>Top displayed text is Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_055_Verify_CreateSalesOrder_Permission_As_No_Quotes</t>
+  </si>
+  <si>
+    <t>PERMNS_056_Verify_CreateSalesOrder_Permission_As_Yes_Quotes</t>
+  </si>
+  <si>
+    <t>Create Sales Order</t>
+  </si>
+  <si>
+    <t>Top displayed text is Create Sales Order</t>
+  </si>
+  <si>
+    <t>PERMNS_057_Verify_QuoteClose_Permission_As_No_Quotes</t>
+  </si>
+  <si>
+    <t>Re Open</t>
+  </si>
+  <si>
+    <t>Top displayed text is Re Open</t>
+  </si>
+  <si>
+    <t>PERMNS_058_Verify_QuoteClose_Permission_As_Yes_Quotes</t>
+  </si>
+  <si>
+    <t>Re Open
+Close</t>
+  </si>
+  <si>
+    <t>Top displayed text is Re Open
+Close</t>
+  </si>
+  <si>
+    <t>PERMNS_061_Verify_ReOpen_Permission_As_No_Quotes</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Top displayed text is Close</t>
+  </si>
+  <si>
+    <t>PERMNS_062_Verify_ReOpen_Permission_As_Yes_Quotes</t>
+  </si>
+  <si>
+    <t>PERMNS_063_Verify_ReviseQuote_Permission_As_No_Quotes</t>
+  </si>
+  <si>
+    <t>idDisplayed is false</t>
+  </si>
+  <si>
+    <t>PERMNS_064_Verify_ReviseQuote_Permission_As_Yes_Quotes</t>
+  </si>
+  <si>
+    <t>is Displayed is true</t>
+  </si>
+  <si>
+    <t>PERMNS_065_Verify_Send To Customer_Permission_As_No_Quotes</t>
+  </si>
+  <si>
+    <t>Send To Customer is Displayed==&gt;false</t>
+  </si>
+  <si>
+    <t>Top displayed text is false</t>
+  </si>
+  <si>
+    <t>PERMNS_066_Verify_Send To Customer_Permission_As_Yes_Quotes</t>
+  </si>
+  <si>
+    <t>Send To Customer is Displayed==&gt;true</t>
+  </si>
+  <si>
+    <t>Top displayed text is true</t>
+  </si>
+  <si>
+    <t>PERMNS_067_Verify_Pay Terms_Permission_As_No_Quotes</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Top displayed text is 6</t>
+  </si>
+  <si>
+    <t>PERMNS_068_Verify_Pay Terms__Permission_As_Yes_Quotes</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Top displayed text is 32</t>
+  </si>
+  <si>
+    <t>PERMNS_070	_Verify_Quote Approval Limit__Permission_As_$50k and above_Quotes</t>
+  </si>
+  <si>
+    <t>Revise Quote
+Approve</t>
+  </si>
+  <si>
+    <t>Top displayed text is Revise Quote
+Approve</t>
+  </si>
+  <si>
+    <t>PERMNS_071_Verify_Inventory_Permission_As_None</t>
+  </si>
+  <si>
+    <t>Top displayed text is Inventory</t>
+  </si>
+  <si>
+    <t>PERMNS_072_Verify_Inventory_Permission_As_View</t>
+  </si>
+  <si>
+    <t>Top displayed text is option CMT-G01, selected.
+CMT-G01</t>
+  </si>
+  <si>
+    <t>PERMNS_073_Verify_Jobs_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_074_Verify_Jobs_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_075_Verify_Orders_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_076_Verify_Part Purchase_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_077_Part Purchase_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_078_Verify_Organizations_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_079_Verify_Organizations_Permission_As_View</t>
+  </si>
+  <si>
+    <t>Export
+Filters</t>
+  </si>
+  <si>
+    <t>Top displayed text is Export
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_080_Verify_Contacts_Permission_As_None</t>
+  </si>
+  <si>
+    <t>PERMNS_081_Verify_Contacts_Permission_As_View</t>
+  </si>
+  <si>
+    <t>PERMNS_082_Verify_Export_Permission_As_Yes_Contacts</t>
+  </si>
+  <si>
+    <t>Top displayed text is Save View
+Export
+Filters</t>
+  </si>
+  <si>
+    <t>Save View
+Export
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_083_Verify_Export_Permission_As_No_Contacts</t>
+  </si>
+  <si>
+    <t>Top displayed text is Save View
+Filters</t>
+  </si>
+  <si>
+    <t>Save View
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_084_Verify_Export_Permission_As_No_Organizations</t>
+  </si>
+  <si>
+    <t>PERMNS_085_Verify_Export_Permission_As_Yes_Organizations</t>
+  </si>
+  <si>
+    <t>PERMNS_086_Verify_Sync_Permission_As_Yes_Contacts</t>
+  </si>
+  <si>
+    <t>Top displayed text is Save View
+Sync
+Filters</t>
+  </si>
+  <si>
+    <t>Save View
+Sync
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_087_Verify_Sync_Permission_As_No_Contacts</t>
+  </si>
+  <si>
+    <t>PERMNS_088_Verify_Sync_Permission_As_Yes_Organizations</t>
+  </si>
+  <si>
+    <t>Top displayed text is Save View
+Sync
+Export
+Filters</t>
+  </si>
+  <si>
+    <t>Save View
+Sync
+Export
+Filters</t>
+  </si>
+  <si>
+    <t>PERMNS_089_Verify_Sync_Permission_As_No_Organizations</t>
+  </si>
+  <si>
+    <t>PERMNS_090_Verify_Sync_Permission_As_No_Warehouse</t>
+  </si>
+  <si>
+    <t>Top displayed text is Filters
+Sync</t>
+  </si>
+  <si>
+    <t>Filters
+Sync</t>
+  </si>
+  <si>
+    <t>PERMNS_091_Verify_Sync_Permission_As_Yes_Warehouse</t>
+  </si>
+  <si>
+    <t>PERMNS_092_Verify_Sync_Permission_As_No_ProductClass</t>
+  </si>
+  <si>
+    <t>PERMNS_093_Verify_Sync_Permission_As_Yes_ProductClass</t>
+  </si>
+  <si>
+    <t>PRICING_001_VerifyAddProduct</t>
+  </si>
+  <si>
+    <t>092601</t>
+  </si>
+  <si>
+    <t>PricingPage</t>
+  </si>
+  <si>
+    <t>PRICING_002_VerifyUpdateProduct</t>
+  </si>
+  <si>
+    <t>before update List Price is 45</t>
+  </si>
+  <si>
+    <t>after update List Price is 55</t>
+  </si>
+  <si>
+    <t>PRICING_004_VerifyUpdateDiscountCode</t>
+  </si>
+  <si>
+    <t>before update Our Price value is 2</t>
+  </si>
+  <si>
+    <t>after update Our Price value is 3</t>
+  </si>
+  <si>
+    <t>PRICING_005_VerifyImport</t>
+  </si>
+  <si>
+    <t>Imported Data Successfully</t>
+  </si>
+  <si>
+    <t>PRICING_006_VerifyBuyPrice_SellPrice_InSpecialPricing_BuyPrice_Null_PurchaseDiscount_Not_Null</t>
+  </si>
+  <si>
+    <t>actual buy price 104.45 expected buy price 104.445</t>
+  </si>
+  <si>
+    <t>actual sell price 155.62 expected sell price 155.62</t>
+  </si>
+  <si>
+    <t>NonStandardPricing</t>
+  </si>
+  <si>
+    <t>PRICING_007_VerifyBuyPrice_SellPrice_InSpecialPricing_BuyPrice_PurchaseDiscount_Null</t>
+  </si>
+  <si>
+    <t>actual buy price 0.0 expected buy price 0.0</t>
+  </si>
+  <si>
+    <t>actual sell price 112.28 expected sell price 112.28</t>
+  </si>
+  <si>
+    <t>PRICING_008_VerifyBuyPrice_SellPrice_InSpecialPricing_BuyPrice_PurchaseDiscount_Not_Null</t>
+  </si>
+  <si>
+    <t>actual buy price 267.0 expected buy price 267.0</t>
+  </si>
+  <si>
+    <t>actual sell price 317.73 expected sell price 317.73</t>
+  </si>
+  <si>
+    <t>PRICING_009_VerifyBuyPrice_SellPrice_InSpecialPricing_Type_As_Discount</t>
+  </si>
+  <si>
+    <t>actual buy price 123.0 expected buy price 123.0</t>
+  </si>
+  <si>
+    <t>actual sell price 115.52 expected sell price 115.52</t>
+  </si>
+  <si>
+    <t>PRICING_012_VerifyAddProduct_DuplicateStockCode</t>
+  </si>
+  <si>
+    <t>The Stock Code already exists.</t>
+  </si>
+  <si>
+    <t>PRICING_013_VerifyAddProduct_EmptyStockCode</t>
+  </si>
+  <si>
+    <t>Please enter Stock Code</t>
+  </si>
+  <si>
+    <t>PRICING_014_VerifyAddProduct_EmptyDiscountCode</t>
+  </si>
+  <si>
+    <t>Please select Discount Code</t>
+  </si>
+  <si>
+    <t>PRICING_015_VerifyAddProduct_EmptyListPrice</t>
+  </si>
+  <si>
+    <t>Please enter List Price</t>
+  </si>
+  <si>
+    <t>PRICING_016_VerifyAddProduct_InvalidListPrice</t>
+  </si>
+  <si>
+    <t>Please enter valid number</t>
+  </si>
+  <si>
+    <t>PRICING_017_VerifyAddProduct_EmptyProductClass</t>
+  </si>
+  <si>
+    <t>Please select Product Class</t>
+  </si>
+  <si>
+    <t>PRICING_018_VerifyUpdateProduct_EmptyListPrice</t>
+  </si>
+  <si>
+    <t>PRICING_019_VerifyUpdateProduct_InvalidListPrice</t>
+  </si>
+  <si>
+    <t>PRICING_021_Verify_Filters_In_Pricing</t>
+  </si>
+  <si>
+    <t>Displayed Filter is BACO44</t>
+  </si>
+  <si>
+    <t>Applied Filter is BACO44</t>
+  </si>
+  <si>
+    <t>PRICING_021_Verify_isDifferentPricing_CheckBox_No_InVendors</t>
+  </si>
+  <si>
+    <t>is different pricing option  not applied</t>
+  </si>
+  <si>
+    <t>displayed msg is This vendor has different pricing by Branch</t>
+  </si>
+  <si>
+    <t>is different pricing option applied</t>
+  </si>
+  <si>
     <t>QUOTES_001_VerifyCreateQuote</t>
   </si>
   <si>
-    <t>#2023060800007
+    <t>#2023061600001
 OPEN</t>
   </si>
   <si>
@@ -45,52 +1062,221 @@
     <t>QuotesPage</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>2023-06-08</t>
-  </si>
-  <si>
-    <t>#2023060800008
+    <t>QUOTES_002_VerifySelectItemToQuote</t>
+  </si>
+  <si>
+    <t>Quote Items (0)</t>
+  </si>
+  <si>
+    <t>Quote Items (1)</t>
+  </si>
+  <si>
+    <t>QUOTES_003_VerifyLeadTimeDisplayedOrNot</t>
+  </si>
+  <si>
+    <t>21 Weeks</t>
+  </si>
+  <si>
+    <t>QUOTES_004_VerifyBulkEdit</t>
+  </si>
+  <si>
+    <t>Displayed Discount is 32.23 %</t>
+  </si>
+  <si>
+    <t>Applied Discount is 32.23 %</t>
+  </si>
+  <si>
+    <t>QUOTES_005_VerifySubmitForInternalApproval</t>
+  </si>
+  <si>
+    <t>#2023061600001
+PENDING APPROVAL</t>
+  </si>
+  <si>
+    <t>PENDING APPROVAL</t>
+  </si>
+  <si>
+    <t>QUOTES_006_Verify_Display_TheReviseQuote_When_Quote_Is_Pending_Approval</t>
+  </si>
+  <si>
+    <t>Revise Quote button is Displayed ..? true</t>
+  </si>
+  <si>
+    <t>QUOTES_007_VerifyApproveButton</t>
+  </si>
+  <si>
+    <t>#2023061600001
+APPROVED</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
+    <t>QUOTES_008_VerifySubmitForCustomerApproval</t>
+  </si>
+  <si>
+    <t>#2023061600001
+DELIVERED TO CUSTOMER</t>
+  </si>
+  <si>
+    <t>DELIVERED TO CUSTOMER</t>
+  </si>
+  <si>
+    <t>QUOTES_009_VerifyQuoteWon</t>
+  </si>
+  <si>
+    <t>#2023061600001
+Option 1
+WON</t>
+  </si>
+  <si>
+    <t>WON</t>
+  </si>
+  <si>
+    <t>QUOTES_010_VerifyCreateSalesOrder_FromQuote</t>
+  </si>
+  <si>
+    <t>Sales Order 223831 Created with Order status is OPEN ORDER</t>
+  </si>
+  <si>
+    <t>SalesOrderPage</t>
+  </si>
+  <si>
+    <t>QUOTES_011_VerifyCreateJobFromQuote</t>
+  </si>
+  <si>
+    <t>Stock code '0165009LC' is a bought out item</t>
+  </si>
+  <si>
+    <t>JobsPage</t>
+  </si>
+  <si>
+    <t>REPAIRS_001_Verify_Display All Items</t>
+  </si>
+  <si>
+    <t>By default isSeleted status is null</t>
+  </si>
+  <si>
+    <t>RepairsPage</t>
+  </si>
+  <si>
+    <t>2023-06-15</t>
+  </si>
+  <si>
+    <t>REPAIRS_002_VerifyCreateRMA</t>
+  </si>
+  <si>
+    <t>#313686
+CHECK IN PENDING</t>
+  </si>
+  <si>
+    <t>CHECK IN PENDING</t>
+  </si>
+  <si>
+    <t>REPAIRS_003_VerifySelectItemToRepair</t>
+  </si>
+  <si>
+    <t>Repair Items (0)</t>
+  </si>
+  <si>
+    <t>Repair Items (1)</t>
+  </si>
+  <si>
+    <t>REPAIRS_004_VerifyAssignLocation</t>
+  </si>
+  <si>
+    <t>#313686
+CHECKED-IN</t>
+  </si>
+  <si>
+    <t>CHECKED-IN</t>
+  </si>
+  <si>
+    <t>REPAIRS_005_VerifyAssignTechnician</t>
+  </si>
+  <si>
+    <t>#313686
+PENDING EVALUATION</t>
+  </si>
+  <si>
+    <t>PENDING EVALUATION</t>
+  </si>
+  <si>
+    <t>REPAIRS_006_VerifyEvaluateItem</t>
+  </si>
+  <si>
+    <t>#313686
+PENDING QUOTE</t>
+  </si>
+  <si>
+    <t>PENDING QUOTE</t>
+  </si>
+  <si>
+    <t>REPAIRS_007_VerifyAddRepairableItemToQuote</t>
+  </si>
+  <si>
+    <t>#313686
+ADDED TO QUOTE</t>
+  </si>
+  <si>
+    <t>ADDED TO QUOTE</t>
+  </si>
+  <si>
+    <t>REPAIRS_008_VerifyCreateQuoteFromRepair</t>
+  </si>
+  <si>
+    <t>#2023061500054
 OPEN</t>
   </si>
   <si>
-    <t>#2023060800011
-OPEN</t>
-  </si>
-  <si>
-    <t>QUOTES_002_VerifySelectItemToQuote</t>
-  </si>
-  <si>
-    <t>Quote Items (0)</t>
-  </si>
-  <si>
-    <t>Quote Items (1)</t>
-  </si>
-  <si>
-    <t>QUOTES_003_VerifyLeadTimeDisplayedOrNot</t>
-  </si>
-  <si>
-    <t>6 Weeks</t>
-  </si>
-  <si>
-    <t>QUOTES_004_VerifyBulkEdit</t>
-  </si>
-  <si>
-    <t>Displayed Discount is 21.19 %</t>
-  </si>
-  <si>
-    <t>Applied Discount is 21.19 %</t>
-  </si>
-  <si>
-    <t>QUOTES_005_VerifySubmitForInternalApproval</t>
-  </si>
-  <si>
-    <t>#2023060800008
-PENDING APPROVAL</t>
-  </si>
-  <si>
-    <t>PENDING APPROVAL</t>
+    <t>REPAIRS_009_Verify_Past_Repair_Prices</t>
+  </si>
+  <si>
+    <t>REPAIRS_011_VerifyAssignToQC</t>
+  </si>
+  <si>
+    <t>#313686
+PENDING QC</t>
+  </si>
+  <si>
+    <t>PENDING QC</t>
+  </si>
+  <si>
+    <t>REPAIRS_012_VerifyQCCheckList</t>
+  </si>
+  <si>
+    <t>#313686
+COMPLETED</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>REPAIRS_013_Verify_Repair_Report</t>
+  </si>
+  <si>
+    <t>Repair Report Not Working!</t>
+  </si>
+  <si>
+    <t>Opened Tab count is 1</t>
+  </si>
+  <si>
+    <t>REPAIRS_014_VerifyCreateSalesOrder_FromRepair</t>
+  </si>
+  <si>
+    <t>Sales Order 223827 Created with status is OPEN ORDER</t>
+  </si>
+  <si>
+    <t>REPAIRS_015_Verify_Parts_Purchase_Icon_isDisplayed_Or</t>
+  </si>
+  <si>
+    <t>Parts Purchase Icon is Displayed</t>
+  </si>
+  <si>
+    <t>REPAIRS_016_VerifyCreateJobFromRepair</t>
+  </si>
+  <si>
+    <t>Stock code '+00-83000019' is a bought out item</t>
   </si>
 </sst>
 </file>
@@ -152,7 +1338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -165,13 +1351,179 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,10 +1571,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -239,10 +1591,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -262,10 +1614,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -279,13 +1631,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -299,13 +1651,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -322,10 +1674,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -339,13 +1691,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -362,10 +1714,10 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -379,13 +1731,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -395,6 +1747,3326 @@
       </c>
       <c r="F11" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" t="s">
+        <v>124</v>
+      </c>
+      <c r="E63" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" t="s">
+        <v>124</v>
+      </c>
+      <c r="E69" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E70" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" t="s">
+        <v>124</v>
+      </c>
+      <c r="E71" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" t="s">
+        <v>124</v>
+      </c>
+      <c r="E73" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E74" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" t="s">
+        <v>161</v>
+      </c>
+      <c r="D75" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" t="s">
+        <v>124</v>
+      </c>
+      <c r="E77" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" t="s">
+        <v>124</v>
+      </c>
+      <c r="E78" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" t="s">
+        <v>124</v>
+      </c>
+      <c r="E79" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" t="s">
+        <v>124</v>
+      </c>
+      <c r="E80" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84" t="s">
+        <v>124</v>
+      </c>
+      <c r="E84" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" t="s">
+        <v>124</v>
+      </c>
+      <c r="E85" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" t="s">
+        <v>124</v>
+      </c>
+      <c r="E86" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" t="s">
+        <v>124</v>
+      </c>
+      <c r="E87" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" t="s">
+        <v>190</v>
+      </c>
+      <c r="D89" t="s">
+        <v>124</v>
+      </c>
+      <c r="E89" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" t="s">
+        <v>123</v>
+      </c>
+      <c r="D90" t="s">
+        <v>124</v>
+      </c>
+      <c r="E90" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" t="s">
+        <v>193</v>
+      </c>
+      <c r="D91" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" t="s">
+        <v>195</v>
+      </c>
+      <c r="C92" t="s">
+        <v>196</v>
+      </c>
+      <c r="D92" t="s">
+        <v>124</v>
+      </c>
+      <c r="E92" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>197</v>
+      </c>
+      <c r="B93" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" t="s">
+        <v>199</v>
+      </c>
+      <c r="D93" t="s">
+        <v>124</v>
+      </c>
+      <c r="E93" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" t="s">
+        <v>201</v>
+      </c>
+      <c r="D94" t="s">
+        <v>124</v>
+      </c>
+      <c r="E94" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" t="s">
+        <v>205</v>
+      </c>
+      <c r="D96" t="s">
+        <v>124</v>
+      </c>
+      <c r="E96" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" t="s">
+        <v>124</v>
+      </c>
+      <c r="E97" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>207</v>
+      </c>
+      <c r="B98" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" t="s">
+        <v>209</v>
+      </c>
+      <c r="D98" t="s">
+        <v>124</v>
+      </c>
+      <c r="E98" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" t="s">
+        <v>211</v>
+      </c>
+      <c r="C99" t="s">
+        <v>212</v>
+      </c>
+      <c r="D99" t="s">
+        <v>124</v>
+      </c>
+      <c r="E99" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>213</v>
+      </c>
+      <c r="B100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" t="s">
+        <v>215</v>
+      </c>
+      <c r="D100" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>216</v>
+      </c>
+      <c r="B101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" t="s">
+        <v>218</v>
+      </c>
+      <c r="D101" t="s">
+        <v>124</v>
+      </c>
+      <c r="E101" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>219</v>
+      </c>
+      <c r="B102" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" t="s">
+        <v>215</v>
+      </c>
+      <c r="D102" t="s">
+        <v>124</v>
+      </c>
+      <c r="E102" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" t="s">
+        <v>124</v>
+      </c>
+      <c r="E103" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" t="s">
+        <v>124</v>
+      </c>
+      <c r="E104" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" t="s">
+        <v>226</v>
+      </c>
+      <c r="D105" t="s">
+        <v>124</v>
+      </c>
+      <c r="E105" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>227</v>
+      </c>
+      <c r="B106" t="s">
+        <v>228</v>
+      </c>
+      <c r="C106" t="s">
+        <v>229</v>
+      </c>
+      <c r="D106" t="s">
+        <v>124</v>
+      </c>
+      <c r="E106" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>230</v>
+      </c>
+      <c r="B107" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" t="s">
+        <v>232</v>
+      </c>
+      <c r="D107" t="s">
+        <v>124</v>
+      </c>
+      <c r="E107" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>233</v>
+      </c>
+      <c r="B108" t="s">
+        <v>234</v>
+      </c>
+      <c r="C108" t="s">
+        <v>235</v>
+      </c>
+      <c r="D108" t="s">
+        <v>124</v>
+      </c>
+      <c r="E108" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>236</v>
+      </c>
+      <c r="B109" t="s">
+        <v>237</v>
+      </c>
+      <c r="C109" t="s">
+        <v>238</v>
+      </c>
+      <c r="D109" t="s">
+        <v>124</v>
+      </c>
+      <c r="E109" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>239</v>
+      </c>
+      <c r="B110" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" t="s">
+        <v>240</v>
+      </c>
+      <c r="D110" t="s">
+        <v>124</v>
+      </c>
+      <c r="E110" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>241</v>
+      </c>
+      <c r="B111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" t="s">
+        <v>242</v>
+      </c>
+      <c r="D111" t="s">
+        <v>124</v>
+      </c>
+      <c r="E111" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>243</v>
+      </c>
+      <c r="B112" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" t="s">
+        <v>124</v>
+      </c>
+      <c r="E112" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>244</v>
+      </c>
+      <c r="B113" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" t="s">
+        <v>124</v>
+      </c>
+      <c r="E113" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>245</v>
+      </c>
+      <c r="B114" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" t="s">
+        <v>193</v>
+      </c>
+      <c r="D114" t="s">
+        <v>124</v>
+      </c>
+      <c r="E114" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>246</v>
+      </c>
+      <c r="B115" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" t="s">
+        <v>193</v>
+      </c>
+      <c r="D115" t="s">
+        <v>124</v>
+      </c>
+      <c r="E115" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>247</v>
+      </c>
+      <c r="B116" t="s">
+        <v>204</v>
+      </c>
+      <c r="C116" t="s">
+        <v>205</v>
+      </c>
+      <c r="D116" t="s">
+        <v>124</v>
+      </c>
+      <c r="E116" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>248</v>
+      </c>
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" t="s">
+        <v>193</v>
+      </c>
+      <c r="D117" t="s">
+        <v>124</v>
+      </c>
+      <c r="E117" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>249</v>
+      </c>
+      <c r="B118" t="s">
+        <v>250</v>
+      </c>
+      <c r="C118" t="s">
+        <v>251</v>
+      </c>
+      <c r="D118" t="s">
+        <v>124</v>
+      </c>
+      <c r="E118" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>252</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" t="s">
+        <v>193</v>
+      </c>
+      <c r="D119" t="s">
+        <v>124</v>
+      </c>
+      <c r="E119" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>253</v>
+      </c>
+      <c r="B120" t="s">
+        <v>204</v>
+      </c>
+      <c r="C120" t="s">
+        <v>205</v>
+      </c>
+      <c r="D120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E120" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>254</v>
+      </c>
+      <c r="B121" t="s">
+        <v>255</v>
+      </c>
+      <c r="C121" t="s">
+        <v>256</v>
+      </c>
+      <c r="D121" t="s">
+        <v>124</v>
+      </c>
+      <c r="E121" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>257</v>
+      </c>
+      <c r="B122" t="s">
+        <v>258</v>
+      </c>
+      <c r="C122" t="s">
+        <v>259</v>
+      </c>
+      <c r="D122" t="s">
+        <v>124</v>
+      </c>
+      <c r="E122" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>260</v>
+      </c>
+      <c r="B123" t="s">
+        <v>258</v>
+      </c>
+      <c r="C123" t="s">
+        <v>259</v>
+      </c>
+      <c r="D123" t="s">
+        <v>124</v>
+      </c>
+      <c r="E123" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>261</v>
+      </c>
+      <c r="B124" t="s">
+        <v>255</v>
+      </c>
+      <c r="C124" t="s">
+        <v>256</v>
+      </c>
+      <c r="D124" t="s">
+        <v>124</v>
+      </c>
+      <c r="E124" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>262</v>
+      </c>
+      <c r="B125" t="s">
+        <v>263</v>
+      </c>
+      <c r="C125" t="s">
+        <v>264</v>
+      </c>
+      <c r="D125" t="s">
+        <v>124</v>
+      </c>
+      <c r="E125" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>265</v>
+      </c>
+      <c r="B126" t="s">
+        <v>258</v>
+      </c>
+      <c r="C126" t="s">
+        <v>259</v>
+      </c>
+      <c r="D126" t="s">
+        <v>124</v>
+      </c>
+      <c r="E126" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>266</v>
+      </c>
+      <c r="B127" t="s">
+        <v>267</v>
+      </c>
+      <c r="C127" t="s">
+        <v>268</v>
+      </c>
+      <c r="D127" t="s">
+        <v>124</v>
+      </c>
+      <c r="E127" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>269</v>
+      </c>
+      <c r="B128" t="s">
+        <v>255</v>
+      </c>
+      <c r="C128" t="s">
+        <v>256</v>
+      </c>
+      <c r="D128" t="s">
+        <v>124</v>
+      </c>
+      <c r="E128" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>270</v>
+      </c>
+      <c r="B129" t="s">
+        <v>271</v>
+      </c>
+      <c r="C129" t="s">
+        <v>272</v>
+      </c>
+      <c r="D129" t="s">
+        <v>124</v>
+      </c>
+      <c r="E129" t="s">
+        <v>30</v>
+      </c>
+      <c r="F129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>273</v>
+      </c>
+      <c r="B130" t="s">
+        <v>205</v>
+      </c>
+      <c r="C130" t="s">
+        <v>204</v>
+      </c>
+      <c r="D130" t="s">
+        <v>124</v>
+      </c>
+      <c r="E130" t="s">
+        <v>30</v>
+      </c>
+      <c r="F130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>274</v>
+      </c>
+      <c r="B131" t="s">
+        <v>205</v>
+      </c>
+      <c r="C131" t="s">
+        <v>204</v>
+      </c>
+      <c r="D131" t="s">
+        <v>124</v>
+      </c>
+      <c r="E131" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>275</v>
+      </c>
+      <c r="B132" t="s">
+        <v>205</v>
+      </c>
+      <c r="C132" t="s">
+        <v>204</v>
+      </c>
+      <c r="D132" t="s">
+        <v>124</v>
+      </c>
+      <c r="E132" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>276</v>
+      </c>
+      <c r="B133" t="s">
+        <v>277</v>
+      </c>
+      <c r="C133" t="s">
+        <v>277</v>
+      </c>
+      <c r="D133" t="s">
+        <v>278</v>
+      </c>
+      <c r="E133" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F133" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>279</v>
+      </c>
+      <c r="B134" t="s">
+        <v>280</v>
+      </c>
+      <c r="C134" t="s">
+        <v>281</v>
+      </c>
+      <c r="D134" t="s">
+        <v>278</v>
+      </c>
+      <c r="E134" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F134" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>282</v>
+      </c>
+      <c r="B135" t="s">
+        <v>283</v>
+      </c>
+      <c r="C135" t="s">
+        <v>284</v>
+      </c>
+      <c r="D135" t="s">
+        <v>278</v>
+      </c>
+      <c r="E135" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F135" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>285</v>
+      </c>
+      <c r="B136" t="s">
+        <v>286</v>
+      </c>
+      <c r="C136" t="s">
+        <v>286</v>
+      </c>
+      <c r="D136" t="s">
+        <v>278</v>
+      </c>
+      <c r="E136" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F136" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>287</v>
+      </c>
+      <c r="B137" t="s">
+        <v>288</v>
+      </c>
+      <c r="C137" t="s">
+        <v>289</v>
+      </c>
+      <c r="D137" t="s">
+        <v>290</v>
+      </c>
+      <c r="E137" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F137" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>291</v>
+      </c>
+      <c r="B138" t="s">
+        <v>292</v>
+      </c>
+      <c r="C138" t="s">
+        <v>293</v>
+      </c>
+      <c r="D138" t="s">
+        <v>290</v>
+      </c>
+      <c r="E138" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F138" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>294</v>
+      </c>
+      <c r="B139" t="s">
+        <v>295</v>
+      </c>
+      <c r="C139" t="s">
+        <v>296</v>
+      </c>
+      <c r="D139" t="s">
+        <v>290</v>
+      </c>
+      <c r="E139" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F139" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>297</v>
+      </c>
+      <c r="B140" t="s">
+        <v>298</v>
+      </c>
+      <c r="C140" t="s">
+        <v>299</v>
+      </c>
+      <c r="D140" t="s">
+        <v>290</v>
+      </c>
+      <c r="E140" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F140" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>300</v>
+      </c>
+      <c r="B141" t="s">
+        <v>301</v>
+      </c>
+      <c r="C141" t="s">
+        <v>301</v>
+      </c>
+      <c r="D141" t="s">
+        <v>278</v>
+      </c>
+      <c r="E141" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F141" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>302</v>
+      </c>
+      <c r="B142" t="s">
+        <v>303</v>
+      </c>
+      <c r="C142" t="s">
+        <v>303</v>
+      </c>
+      <c r="D142" t="s">
+        <v>278</v>
+      </c>
+      <c r="E142" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F142" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>304</v>
+      </c>
+      <c r="B143" t="s">
+        <v>305</v>
+      </c>
+      <c r="C143" t="s">
+        <v>305</v>
+      </c>
+      <c r="D143" t="s">
+        <v>278</v>
+      </c>
+      <c r="E143" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F143" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>306</v>
+      </c>
+      <c r="B144" t="s">
+        <v>307</v>
+      </c>
+      <c r="C144" t="s">
+        <v>307</v>
+      </c>
+      <c r="D144" t="s">
+        <v>278</v>
+      </c>
+      <c r="E144" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F144" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>308</v>
+      </c>
+      <c r="B145" t="s">
+        <v>309</v>
+      </c>
+      <c r="C145" t="s">
+        <v>309</v>
+      </c>
+      <c r="D145" t="s">
+        <v>278</v>
+      </c>
+      <c r="E145" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F145" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>310</v>
+      </c>
+      <c r="B146" t="s">
+        <v>311</v>
+      </c>
+      <c r="C146" t="s">
+        <v>311</v>
+      </c>
+      <c r="D146" t="s">
+        <v>278</v>
+      </c>
+      <c r="E146" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F146" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>312</v>
+      </c>
+      <c r="B147" t="s">
+        <v>307</v>
+      </c>
+      <c r="C147" t="s">
+        <v>307</v>
+      </c>
+      <c r="D147" t="s">
+        <v>278</v>
+      </c>
+      <c r="E147" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F147" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>313</v>
+      </c>
+      <c r="B148" t="s">
+        <v>309</v>
+      </c>
+      <c r="C148" t="s">
+        <v>309</v>
+      </c>
+      <c r="D148" t="s">
+        <v>278</v>
+      </c>
+      <c r="E148" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F148" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>314</v>
+      </c>
+      <c r="B149" t="s">
+        <v>315</v>
+      </c>
+      <c r="C149" t="s">
+        <v>316</v>
+      </c>
+      <c r="D149" t="s">
+        <v>278</v>
+      </c>
+      <c r="E149" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F149" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>317</v>
+      </c>
+      <c r="B150" t="s">
+        <v>318</v>
+      </c>
+      <c r="C150" t="s">
+        <v>319</v>
+      </c>
+      <c r="D150" t="s">
+        <v>278</v>
+      </c>
+      <c r="E150" t="s">
+        <v>30</v>
+      </c>
+      <c r="F150" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>317</v>
+      </c>
+      <c r="B151" t="s">
+        <v>320</v>
+      </c>
+      <c r="C151" t="s">
+        <v>319</v>
+      </c>
+      <c r="D151" t="s">
+        <v>278</v>
+      </c>
+      <c r="E151" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F151" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>321</v>
+      </c>
+      <c r="B152" t="s">
+        <v>322</v>
+      </c>
+      <c r="C152" t="s">
+        <v>323</v>
+      </c>
+      <c r="D152" t="s">
+        <v>324</v>
+      </c>
+      <c r="E152" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F152" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>325</v>
+      </c>
+      <c r="B153" t="s">
+        <v>326</v>
+      </c>
+      <c r="C153" t="s">
+        <v>327</v>
+      </c>
+      <c r="D153" t="s">
+        <v>324</v>
+      </c>
+      <c r="E153" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F153" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>328</v>
+      </c>
+      <c r="B154" t="s">
+        <v>329</v>
+      </c>
+      <c r="C154" t="s">
+        <v>329</v>
+      </c>
+      <c r="D154" t="s">
+        <v>324</v>
+      </c>
+      <c r="E154" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F154" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>330</v>
+      </c>
+      <c r="B155" t="s">
+        <v>331</v>
+      </c>
+      <c r="C155" t="s">
+        <v>332</v>
+      </c>
+      <c r="D155" t="s">
+        <v>324</v>
+      </c>
+      <c r="E155" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F155" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>333</v>
+      </c>
+      <c r="B156" t="s">
+        <v>334</v>
+      </c>
+      <c r="C156" t="s">
+        <v>335</v>
+      </c>
+      <c r="D156" t="s">
+        <v>324</v>
+      </c>
+      <c r="E156" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F156" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>336</v>
+      </c>
+      <c r="B157" t="s">
+        <v>337</v>
+      </c>
+      <c r="C157" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" t="s">
+        <v>324</v>
+      </c>
+      <c r="E157" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F157" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>338</v>
+      </c>
+      <c r="B158" t="s">
+        <v>339</v>
+      </c>
+      <c r="C158" t="s">
+        <v>340</v>
+      </c>
+      <c r="D158" t="s">
+        <v>324</v>
+      </c>
+      <c r="E158" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F158" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>341</v>
+      </c>
+      <c r="B159" t="s">
+        <v>342</v>
+      </c>
+      <c r="C159" t="s">
+        <v>343</v>
+      </c>
+      <c r="D159" t="s">
+        <v>324</v>
+      </c>
+      <c r="E159" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F159" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>344</v>
+      </c>
+      <c r="B160" t="s">
+        <v>345</v>
+      </c>
+      <c r="C160" t="s">
+        <v>346</v>
+      </c>
+      <c r="D160" t="s">
+        <v>324</v>
+      </c>
+      <c r="E160" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F160" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>347</v>
+      </c>
+      <c r="B161" t="s">
+        <v>348</v>
+      </c>
+      <c r="C161" t="s">
+        <v>24</v>
+      </c>
+      <c r="D161" t="s">
+        <v>349</v>
+      </c>
+      <c r="E161" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F161" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>350</v>
+      </c>
+      <c r="B162" t="s">
+        <v>351</v>
+      </c>
+      <c r="C162" t="s">
+        <v>24</v>
+      </c>
+      <c r="D162" t="s">
+        <v>352</v>
+      </c>
+      <c r="E162" t="s">
+        <v>30</v>
+      </c>
+      <c r="F162" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>353</v>
+      </c>
+      <c r="B163" t="s">
+        <v>354</v>
+      </c>
+      <c r="C163" t="s">
+        <v>24</v>
+      </c>
+      <c r="D163" t="s">
+        <v>355</v>
+      </c>
+      <c r="E163" t="s">
+        <v>30</v>
+      </c>
+      <c r="F163" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>357</v>
+      </c>
+      <c r="B164" t="s">
+        <v>358</v>
+      </c>
+      <c r="C164" t="s">
+        <v>359</v>
+      </c>
+      <c r="D164" t="s">
+        <v>355</v>
+      </c>
+      <c r="E164" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F164" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>360</v>
+      </c>
+      <c r="B165" t="s">
+        <v>361</v>
+      </c>
+      <c r="C165" t="s">
+        <v>362</v>
+      </c>
+      <c r="D165" t="s">
+        <v>355</v>
+      </c>
+      <c r="E165" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F165" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>363</v>
+      </c>
+      <c r="B166" t="s">
+        <v>364</v>
+      </c>
+      <c r="C166" t="s">
+        <v>365</v>
+      </c>
+      <c r="D166" t="s">
+        <v>355</v>
+      </c>
+      <c r="E166" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F166" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>366</v>
+      </c>
+      <c r="B167" t="s">
+        <v>367</v>
+      </c>
+      <c r="C167" t="s">
+        <v>368</v>
+      </c>
+      <c r="D167" t="s">
+        <v>355</v>
+      </c>
+      <c r="E167" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F167" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>369</v>
+      </c>
+      <c r="B168" t="s">
+        <v>370</v>
+      </c>
+      <c r="C168" t="s">
+        <v>371</v>
+      </c>
+      <c r="D168" t="s">
+        <v>355</v>
+      </c>
+      <c r="E168" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F168" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>372</v>
+      </c>
+      <c r="B169" t="s">
+        <v>373</v>
+      </c>
+      <c r="C169" t="s">
+        <v>374</v>
+      </c>
+      <c r="D169" t="s">
+        <v>355</v>
+      </c>
+      <c r="E169" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F169" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>375</v>
+      </c>
+      <c r="B170" t="s">
+        <v>376</v>
+      </c>
+      <c r="C170" t="s">
+        <v>323</v>
+      </c>
+      <c r="D170" t="s">
+        <v>355</v>
+      </c>
+      <c r="E170" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F170" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>377</v>
+      </c>
+      <c r="B171" t="s">
+        <v>24</v>
+      </c>
+      <c r="C171" t="s">
+        <v>24</v>
+      </c>
+      <c r="D171" t="s">
+        <v>355</v>
+      </c>
+      <c r="E171" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F171" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>378</v>
+      </c>
+      <c r="B172" t="s">
+        <v>379</v>
+      </c>
+      <c r="C172" t="s">
+        <v>380</v>
+      </c>
+      <c r="D172" t="s">
+        <v>355</v>
+      </c>
+      <c r="E172" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F172" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>381</v>
+      </c>
+      <c r="B173" t="s">
+        <v>382</v>
+      </c>
+      <c r="C173" t="s">
+        <v>383</v>
+      </c>
+      <c r="D173" t="s">
+        <v>355</v>
+      </c>
+      <c r="E173" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F173" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>384</v>
+      </c>
+      <c r="B174" t="s">
+        <v>385</v>
+      </c>
+      <c r="C174" t="s">
+        <v>386</v>
+      </c>
+      <c r="D174" t="s">
+        <v>355</v>
+      </c>
+      <c r="E174" t="s">
+        <v>30</v>
+      </c>
+      <c r="F174" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>387</v>
+      </c>
+      <c r="B175" t="s">
+        <v>388</v>
+      </c>
+      <c r="C175" t="s">
+        <v>24</v>
+      </c>
+      <c r="D175" t="s">
+        <v>349</v>
+      </c>
+      <c r="E175" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F175" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>389</v>
+      </c>
+      <c r="B176" t="s">
+        <v>390</v>
+      </c>
+      <c r="C176" t="s">
+        <v>24</v>
+      </c>
+      <c r="D176" t="s">
+        <v>355</v>
+      </c>
+      <c r="E176" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F176" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>391</v>
+      </c>
+      <c r="B177" t="s">
+        <v>392</v>
+      </c>
+      <c r="C177" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" t="s">
+        <v>352</v>
+      </c>
+      <c r="E177" t="s">
+        <v>30</v>
+      </c>
+      <c r="F177" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/InternalPortal/tcfile.xlsx
+++ b/InternalPortal/tcfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="483">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -332,6 +332,51 @@
     <t>TERRITORY</t>
   </si>
   <si>
+    <t>Check_URLS_01</t>
+  </si>
+  <si>
+    <t>Actual URL is https://www.staging-buzzworld.iidm.com/organizations</t>
+  </si>
+  <si>
+    <t>Expected URL is https://www.staging-buzzworld.iidm.com/organizations</t>
+  </si>
+  <si>
+    <t>Check_URLS_02</t>
+  </si>
+  <si>
+    <t>Actual URL is https://www.staging-buzzworld.iidm.com/contacts</t>
+  </si>
+  <si>
+    <t>Expected URL is https://www.staging-buzzworld.iidm.com/contacts</t>
+  </si>
+  <si>
+    <t>Check_URLS_03</t>
+  </si>
+  <si>
+    <t>Actual URL is https://www.staging-buzzworld.iidm.com/pricing</t>
+  </si>
+  <si>
+    <t>Expected URL is https://www.staging-buzzworld.iidm.com/pricing</t>
+  </si>
+  <si>
+    <t>Check_URLS_04</t>
+  </si>
+  <si>
+    <t>Actual URL is https://www.staging-buzzworld.iidm.com/discount-codes</t>
+  </si>
+  <si>
+    <t>Expected URL is https://www.staging-buzzworld.iidm.com/discount-codes</t>
+  </si>
+  <si>
+    <t>Check_URLS_05</t>
+  </si>
+  <si>
+    <t>Actual URL is https://www.staging-buzzworld.iidm.com/special-pricing</t>
+  </si>
+  <si>
+    <t>Expected URL is https://www.staging-buzzworld.iidm.com/special-pricing</t>
+  </si>
+  <si>
     <t>Check_USER_ROLES_URLs_Redirects_To_Same_Or_Not_After_Logout_027</t>
   </si>
   <si>
@@ -375,6 +420,27 @@
   </si>
   <si>
     <t>ZIPCODES</t>
+  </si>
+  <si>
+    <t>JOBS_001_VerifyCreateJob</t>
+  </si>
+  <si>
+    <t>Stock code '+00-83000019' is a bought out item</t>
+  </si>
+  <si>
+    <t>JobsPage</t>
+  </si>
+  <si>
+    <t>2023-06-22</t>
+  </si>
+  <si>
+    <t>PARTSPURCHASE_001_VerifyCreate_PartsPurchase</t>
+  </si>
+  <si>
+    <t>Part purchase is found for the given Job ID</t>
+  </si>
+  <si>
+    <t>PartsPurchasePage</t>
   </si>
   <si>
     <t>PERMNS_001_Verify_AccountType_Permission_As_None</t>
@@ -1040,19 +1106,19 @@
     <t>PRICING_021_Verify_isDifferentPricing_CheckBox_No_InVendors</t>
   </si>
   <si>
+    <t>is different pricing option applied</t>
+  </si>
+  <si>
+    <t>displayed msg is This vendor has different pricing by Branch</t>
+  </si>
+  <si>
     <t>is different pricing option  not applied</t>
   </si>
   <si>
-    <t>displayed msg is This vendor has different pricing by Branch</t>
-  </si>
-  <si>
-    <t>is different pricing option applied</t>
-  </si>
-  <si>
     <t>QUOTES_001_VerifyCreateQuote</t>
   </si>
   <si>
-    <t>#2023061600001
+    <t>#2023062200020
 OPEN</t>
   </si>
   <si>
@@ -1089,7 +1155,7 @@
     <t>QUOTES_005_VerifySubmitForInternalApproval</t>
   </si>
   <si>
-    <t>#2023061600001
+    <t>#2023062200020
 PENDING APPROVAL</t>
   </si>
   <si>
@@ -1105,7 +1171,7 @@
     <t>QUOTES_007_VerifyApproveButton</t>
   </si>
   <si>
-    <t>#2023061600001
+    <t>#2023062200020
 APPROVED</t>
   </si>
   <si>
@@ -1115,7 +1181,7 @@
     <t>QUOTES_008_VerifySubmitForCustomerApproval</t>
   </si>
   <si>
-    <t>#2023061600001
+    <t>#2023062200020
 DELIVERED TO CUSTOMER</t>
   </si>
   <si>
@@ -1125,7 +1191,7 @@
     <t>QUOTES_009_VerifyQuoteWon</t>
   </si>
   <si>
-    <t>#2023061600001
+    <t>#2023062200020
 Option 1
 WON</t>
   </si>
@@ -1136,7 +1202,7 @@
     <t>QUOTES_010_VerifyCreateSalesOrder_FromQuote</t>
   </si>
   <si>
-    <t>Sales Order 223831 Created with Order status is OPEN ORDER</t>
+    <t>Sales Order 223871 Created with Order status is OPEN ORDER</t>
   </si>
   <si>
     <t>SalesOrderPage</t>
@@ -1148,31 +1214,164 @@
     <t>Stock code '0165009LC' is a bought out item</t>
   </si>
   <si>
-    <t>JobsPage</t>
+    <t>QUOTES_012_Verify_Quote_Lost</t>
+  </si>
+  <si>
+    <t>#2023062000026
+LOST</t>
+  </si>
+  <si>
+    <t>LOST</t>
+  </si>
+  <si>
+    <t>2023-06-20</t>
+  </si>
+  <si>
+    <t>QUOTES_013_VerifyPrintFunctionality</t>
+  </si>
+  <si>
+    <t>Print working in Quotes Detailed Page.</t>
+  </si>
+  <si>
+    <t>QUOTES_014_VerifySearchByQuoteId</t>
+  </si>
+  <si>
+    <t>No Quotes for Parts Found! for QUOTES_014_VerifySearchByQuoteId</t>
+  </si>
+  <si>
+    <t>2023053100074</t>
+  </si>
+  <si>
+    <t>QUOTES_015_VerifySearchByCompanyName</t>
+  </si>
+  <si>
+    <t>No Quotes for Parts Found! for QUOTES_015_VerifySearchByCompanyName</t>
+  </si>
+  <si>
+    <t>123 E Doty Corporation</t>
+  </si>
+  <si>
+    <t>QUOTES_016_VerifySearchBySalesPersonName</t>
+  </si>
+  <si>
+    <t>Frontier</t>
+  </si>
+  <si>
+    <t>QUOTES_017_VerifySearchByEmail</t>
+  </si>
+  <si>
+    <t>No Quotes for Parts Found! for QUOTES_017_VerifySearchByEmail</t>
+  </si>
+  <si>
+    <t>pete.soto@motion-ind.com</t>
+  </si>
+  <si>
+    <t>QUOTES_018_VerifyFiltersInQuotesListView</t>
+  </si>
+  <si>
+    <t>Filter functionality working</t>
+  </si>
+  <si>
+    <t>QUOTES_019_VerifyFiltersStateMaintanance</t>
+  </si>
+  <si>
+    <t>Filter State Maintanance working.</t>
+  </si>
+  <si>
+    <t>QUOTES_020_VerifyResetandClearButtonInFiltersPage</t>
+  </si>
+  <si>
+    <t>Search By Company Name</t>
+  </si>
+  <si>
+    <t>QUOTES_021_VerifyReOpen_ButtonInQuoteDetailePage</t>
+  </si>
+  <si>
+    <t>#2023062000038
+OPEN</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>QUOTES_022_VerifyClose_ButtonInQuoteDetailePage</t>
+  </si>
+  <si>
+    <t>#2023062000028
+CLOSED</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>QUOTES_023_VerifyDeleteIconInQuoteItems</t>
+  </si>
+  <si>
+    <t>QUOTES_024_VerifyEditIconInQuoteItems</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>QUOTES_025_Verify_AddOptionInQuoteDetailedView</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>QUOTES_026_VerifyQuoteClone_QuotesForParts</t>
+  </si>
+  <si>
+    <t>#2023062000033
+OPEN</t>
+  </si>
+  <si>
+    <t>QUOTES_027_VerifyQuoteClone_QuotesForRepairs</t>
+  </si>
+  <si>
+    <t>Quote Type is Parts Quote</t>
+  </si>
+  <si>
+    <t>Quote status is #2023062000035
+OPEN</t>
+  </si>
+  <si>
+    <t>QUOTES_028_Verify_Decline_QuotesForParts</t>
+  </si>
+  <si>
+    <t>#2023062000036
+REJECTED</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
   </si>
   <si>
     <t>REPAIRS_001_Verify_Display All Items</t>
   </si>
   <si>
+    <t>By default isSeleted status is true</t>
+  </si>
+  <si>
+    <t>RepairsPage</t>
+  </si>
+  <si>
     <t>By default isSeleted status is null</t>
   </si>
   <si>
-    <t>RepairsPage</t>
-  </si>
-  <si>
-    <t>2023-06-15</t>
-  </si>
-  <si>
     <t>REPAIRS_002_VerifyCreateRMA</t>
   </si>
   <si>
-    <t>#313686
+    <t>#313802
 CHECK IN PENDING</t>
   </si>
   <si>
     <t>CHECK IN PENDING</t>
   </si>
   <si>
+    <t>#313791
+CHECK IN PENDING</t>
+  </si>
+  <si>
     <t>REPAIRS_003_VerifySelectItemToRepair</t>
   </si>
   <si>
@@ -1185,89 +1384,120 @@
     <t>REPAIRS_004_VerifyAssignLocation</t>
   </si>
   <si>
-    <t>#313686
+    <t>#313802
 CHECKED-IN</t>
   </si>
   <si>
     <t>CHECKED-IN</t>
   </si>
   <si>
+    <t>#313791
+CHECKED-IN</t>
+  </si>
+  <si>
     <t>REPAIRS_005_VerifyAssignTechnician</t>
   </si>
   <si>
-    <t>#313686
+    <t>#313791
 PENDING EVALUATION</t>
   </si>
   <si>
     <t>PENDING EVALUATION</t>
   </si>
   <si>
+    <t>#313802
+PENDING EVALUATION</t>
+  </si>
+  <si>
     <t>REPAIRS_006_VerifyEvaluateItem</t>
   </si>
   <si>
-    <t>#313686
+    <t>#313802
 PENDING QUOTE</t>
   </si>
   <si>
     <t>PENDING QUOTE</t>
   </si>
   <si>
+    <t>#313791
+PENDING QUOTE</t>
+  </si>
+  <si>
     <t>REPAIRS_007_VerifyAddRepairableItemToQuote</t>
   </si>
   <si>
-    <t>#313686
+    <t>#313802
 ADDED TO QUOTE</t>
   </si>
   <si>
     <t>ADDED TO QUOTE</t>
   </si>
   <si>
+    <t>#313791
+ADDED TO QUOTE</t>
+  </si>
+  <si>
     <t>REPAIRS_008_VerifyCreateQuoteFromRepair</t>
   </si>
   <si>
-    <t>#2023061500054
+    <t>#2023062200021
 OPEN</t>
   </si>
   <si>
+    <t>#2023062200002
+OPEN</t>
+  </si>
+  <si>
     <t>REPAIRS_009_Verify_Past_Repair_Prices</t>
   </si>
   <si>
     <t>REPAIRS_011_VerifyAssignToQC</t>
   </si>
   <si>
-    <t>#313686
+    <t>#313802
 PENDING QC</t>
   </si>
   <si>
     <t>PENDING QC</t>
   </si>
   <si>
+    <t>#313791
+PENDING QC</t>
+  </si>
+  <si>
     <t>REPAIRS_012_VerifyQCCheckList</t>
   </si>
   <si>
-    <t>#313686
+    <t>#313802
 COMPLETED</t>
   </si>
   <si>
     <t>COMPLETED</t>
   </si>
   <si>
+    <t>#313791
+COMPLETED</t>
+  </si>
+  <si>
     <t>REPAIRS_013_Verify_Repair_Report</t>
   </si>
   <si>
-    <t>Repair Report Not Working!</t>
-  </si>
-  <si>
-    <t>Opened Tab count is 1</t>
+    <t>Repair Report Working!</t>
+  </si>
+  <si>
+    <t>Opened Tab count is 2</t>
   </si>
   <si>
     <t>REPAIRS_014_VerifyCreateSalesOrder_FromRepair</t>
   </si>
   <si>
-    <t>Sales Order 223827 Created with status is OPEN ORDER</t>
-  </si>
-  <si>
-    <t>REPAIRS_015_Verify_Parts_Purchase_Icon_isDisplayed_Or</t>
+    <t>Sales Order 223872 Created with status is OPEN ORDER</t>
+  </si>
+  <si>
+    <t>Parameter '{OrderDetails}{Price}' missing from XML document for Stock Code: +0509-39</t>
+  </si>
+  <si>
+    <t>REPAIRS_015_Verify_Parts_Purchase_Icon_isDisplayed_OrNot</t>
   </si>
   <si>
     <t>Parts Purchase Icon is Displayed</t>
@@ -1276,7 +1506,63 @@
     <t>REPAIRS_016_VerifyCreateJobFromRepair</t>
   </si>
   <si>
-    <t>Stock code '+00-83000019' is a bought out item</t>
+    <t>REPAIRS_017_VerifyQCCheckListStatusAsFail</t>
+  </si>
+  <si>
+    <t>QC FAILED</t>
+  </si>
+  <si>
+    <t>REPAIRS_018_VerifyFileUpload</t>
+  </si>
+  <si>
+    <t>Document Uploaded successfully</t>
+  </si>
+  <si>
+    <t>REPAIRS_019_VerifyFilters</t>
+  </si>
+  <si>
+    <t>123 E Doty Corporation Dallas House CHECK IN PENDING</t>
+  </si>
+  <si>
+    <t>123 E Doty Corporation Dallas House Check In Pending</t>
+  </si>
+  <si>
+    <t>REPAIRS_020_VerifyFilterStateMaintanance</t>
+  </si>
+  <si>
+    <t>filters  are stabled after refresh the page</t>
+  </si>
+  <si>
+    <t>REPAIRS_021_VerifyAssignToQCIsDisplayedOrNotWhenQuoteStatusHasWon</t>
+  </si>
+  <si>
+    <t>act item status is Assign to QCexp item status is Assign to QC</t>
+  </si>
+  <si>
+    <t>act RMA status is #313794
+IN PROGRESSexp RMA status is IN PROGRESS</t>
+  </si>
+  <si>
+    <t>REPAIRS_022_VerifyAssignToQC_WhenReviseTheQuote</t>
+  </si>
+  <si>
+    <t>act RMA status is #313801
+IN PROGRESSexp RMA status is IN PROGRESS</t>
+  </si>
+  <si>
+    <t>REPAIRS_023_VerifyAddNewItem</t>
+  </si>
+  <si>
+    <t>REPAIRS_024_Verify_Delete_Row_In Add New Items</t>
+  </si>
+  <si>
+    <t>Row Deleted Successfully</t>
+  </si>
+  <si>
+    <t>REPAIRS_025_Verify_Add_Another_Row_In Add New Items</t>
+  </si>
+  <si>
+    <t>Row Added Successfully</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -1380,97 +1666,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -1483,13 +1710,46 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -1504,26 +1764,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F226"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2334,16 +2669,16 @@
         <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="E41" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
@@ -2354,16 +2689,16 @@
         <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="E42" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -2374,16 +2709,16 @@
         <v>112</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" t="s">
-        <v>30</v>
+        <v>72</v>
+      </c>
+      <c r="E43" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -2394,16 +2729,16 @@
         <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="E44" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -2414,16 +2749,16 @@
         <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" t="s">
-        <v>30</v>
+        <v>99</v>
+      </c>
+      <c r="E45" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
@@ -2434,39 +2769,39 @@
         <v>121</v>
       </c>
       <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
         <v>122</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>123</v>
       </c>
-      <c r="D46" t="s">
-        <v>124</v>
-      </c>
-      <c r="E46" t="s" s="1">
-        <v>10</v>
+      <c r="E46" t="s">
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" t="s">
         <v>126</v>
       </c>
-      <c r="B47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" t="s" s="1">
-        <v>10</v>
+      <c r="E47" t="s">
+        <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -2474,1533 +2809,1533 @@
         <v>127</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" t="s" s="1">
-        <v>10</v>
+        <v>129</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" t="s" s="1">
-        <v>10</v>
+        <v>132</v>
+      </c>
+      <c r="E49" t="s">
+        <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" t="s" s="1">
-        <v>10</v>
+        <v>135</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" t="s" s="1">
-        <v>10</v>
+        <v>138</v>
+      </c>
+      <c r="E51" t="s">
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" t="s" s="1">
-        <v>10</v>
+        <v>142</v>
+      </c>
+      <c r="E52" t="s">
+        <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E53" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E54" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E55" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D56" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E56" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E57" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D58" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E59" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D60" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E60" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E61" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E62" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" t="s">
         <v>144</v>
       </c>
-      <c r="B63" t="s">
-        <v>142</v>
-      </c>
       <c r="C63" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" t="s">
         <v>145</v>
       </c>
-      <c r="B64" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" t="s">
-        <v>143</v>
-      </c>
       <c r="D64" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E64" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D65" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E65" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D66" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" t="s">
-        <v>30</v>
+        <v>146</v>
+      </c>
+      <c r="E66" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D67" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E67" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D68" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E68" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E69" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B70" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D70" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E70" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D71" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E71" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E72" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D73" t="s">
-        <v>124</v>
-      </c>
-      <c r="E73" t="s" s="1">
-        <v>10</v>
+        <v>146</v>
+      </c>
+      <c r="E73" t="s">
+        <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D74" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E74" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D75" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E75" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D76" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E76" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D77" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E77" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" t="s">
         <v>164</v>
-      </c>
-      <c r="B78" t="s">
-        <v>142</v>
       </c>
       <c r="C78" t="s">
         <v>165</v>
       </c>
       <c r="D78" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" t="s">
-        <v>30</v>
+        <v>146</v>
+      </c>
+      <c r="E78" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B79" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D79" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E79" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D80" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E80" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C81" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E81" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C82" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D82" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E82" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D83" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E83" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" t="s">
         <v>175</v>
       </c>
-      <c r="B84" t="s">
-        <v>170</v>
-      </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D84" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E84" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C85" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
-      </c>
-      <c r="E85" t="s" s="1">
-        <v>10</v>
+        <v>146</v>
+      </c>
+      <c r="E85" t="s">
+        <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="D86" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E86" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B87" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="D87" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E87" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="C88" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="D88" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E88" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E89" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="D90" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E90" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>197</v>
+      </c>
+      <c r="B91" t="s">
         <v>192</v>
-      </c>
-      <c r="B91" t="s">
-        <v>122</v>
       </c>
       <c r="C91" t="s">
         <v>193</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E91" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B92" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C92" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E92" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E93" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D94" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E94" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B95" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="C95" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D95" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E95" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B96" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C96" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D96" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E96" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B97" t="s">
         <v>24</v>
       </c>
       <c r="C97" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D97" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E97" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B98" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E98" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C99" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D99" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E99" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B100" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C100" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D100" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E100" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B101" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="C101" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D101" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E101" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B102" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
         <v>215</v>
       </c>
       <c r="D102" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E102" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B103" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="D103" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E103" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B104" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="D104" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E104" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B105" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C105" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D105" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E105" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B106" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C106" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D106" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E106" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B107" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C107" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D107" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E107" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B108" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C108" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D108" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E108" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>241</v>
+      </c>
+      <c r="B109" t="s">
         <v>236</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>237</v>
       </c>
-      <c r="C109" t="s">
-        <v>238</v>
-      </c>
       <c r="D109" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E109" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="C110" t="s">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E110" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B111" t="s">
+        <v>245</v>
+      </c>
+      <c r="C111" t="s">
         <v>24</v>
       </c>
-      <c r="C111" t="s">
-        <v>242</v>
-      </c>
       <c r="D111" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E111" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B112" t="s">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="C112" t="s">
-        <v>123</v>
+        <v>248</v>
       </c>
       <c r="D112" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E112" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="C113" t="s">
-        <v>123</v>
+        <v>251</v>
       </c>
       <c r="D113" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E113" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="C114" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="D114" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E114" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>256</v>
       </c>
       <c r="C115" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="D115" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E115" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B116" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="C116" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="D116" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E116" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C117" t="s">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="D117" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E117" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B118" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="C118" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D118" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E118" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C119" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="D119" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E119" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B120" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="C120" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="D120" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E120" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="C121" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="D121" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E121" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B122" t="s">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="C122" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="D122" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E122" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B123" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C123" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="D123" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E123" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B124" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="C124" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="D124" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E124" t="s" s="1">
         <v>10</v>
@@ -4011,16 +4346,16 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B125" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C125" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D125" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E125" t="s" s="1">
         <v>10</v>
@@ -4031,16 +4366,16 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B126" t="s">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="C126" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="D126" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E126" t="s" s="1">
         <v>10</v>
@@ -4051,16 +4386,16 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B127" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="C127" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="D127" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E127" t="s" s="1">
         <v>10</v>
@@ -4071,16 +4406,16 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="C128" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="D128" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E128" t="s" s="1">
         <v>10</v>
@@ -4091,19 +4426,19 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B129" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C129" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D129" t="s">
-        <v>124</v>
-      </c>
-      <c r="E129" t="s">
-        <v>30</v>
+        <v>146</v>
+      </c>
+      <c r="E129" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F129" t="s">
         <v>11</v>
@@ -4111,19 +4446,19 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B130" t="s">
-        <v>205</v>
+        <v>280</v>
       </c>
       <c r="C130" t="s">
-        <v>204</v>
+        <v>281</v>
       </c>
       <c r="D130" t="s">
-        <v>124</v>
-      </c>
-      <c r="E130" t="s">
-        <v>30</v>
+        <v>146</v>
+      </c>
+      <c r="E130" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F130" t="s">
         <v>11</v>
@@ -4131,16 +4466,16 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B131" t="s">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="C131" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="D131" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E131" t="s" s="1">
         <v>10</v>
@@ -4151,19 +4486,19 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B132" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="C132" t="s">
-        <v>204</v>
+        <v>286</v>
       </c>
       <c r="D132" t="s">
-        <v>124</v>
-      </c>
-      <c r="E132" t="s">
-        <v>30</v>
+        <v>146</v>
+      </c>
+      <c r="E132" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F132" t="s">
         <v>11</v>
@@ -4171,427 +4506,427 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B133" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C133" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D133" t="s">
-        <v>278</v>
+        <v>146</v>
       </c>
       <c r="E133" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B134" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C134" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D134" t="s">
-        <v>278</v>
+        <v>146</v>
       </c>
       <c r="E134" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B135" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C135" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D135" t="s">
-        <v>278</v>
+        <v>146</v>
       </c>
       <c r="E135" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B136" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C136" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D136" t="s">
-        <v>278</v>
-      </c>
-      <c r="E136" t="s" s="1">
-        <v>10</v>
+        <v>146</v>
+      </c>
+      <c r="E136" t="s">
+        <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B137" t="s">
-        <v>288</v>
+        <v>227</v>
       </c>
       <c r="C137" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="D137" t="s">
-        <v>290</v>
-      </c>
-      <c r="E137" t="s" s="1">
-        <v>10</v>
+        <v>146</v>
+      </c>
+      <c r="E137" t="s">
+        <v>30</v>
       </c>
       <c r="F137" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B138" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="C138" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="D138" t="s">
-        <v>290</v>
+        <v>146</v>
       </c>
       <c r="E138" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B139" t="s">
-        <v>295</v>
+        <v>227</v>
       </c>
       <c r="C139" t="s">
-        <v>296</v>
+        <v>226</v>
       </c>
       <c r="D139" t="s">
-        <v>290</v>
-      </c>
-      <c r="E139" t="s" s="1">
-        <v>10</v>
+        <v>146</v>
+      </c>
+      <c r="E139" t="s">
+        <v>30</v>
       </c>
       <c r="F139" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B140" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C140" t="s">
         <v>299</v>
       </c>
       <c r="D140" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E140" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>301</v>
+      </c>
+      <c r="B141" t="s">
+        <v>302</v>
+      </c>
+      <c r="C141" t="s">
+        <v>303</v>
+      </c>
+      <c r="D141" t="s">
         <v>300</v>
       </c>
-      <c r="B141" t="s">
-        <v>301</v>
-      </c>
-      <c r="C141" t="s">
-        <v>301</v>
-      </c>
-      <c r="D141" t="s">
-        <v>278</v>
-      </c>
       <c r="E141" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B142" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C142" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D142" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="E142" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B143" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C143" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D143" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="E143" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B144" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C144" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D144" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="E144" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B145" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C145" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D145" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="E145" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B146" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C146" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D146" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="E146" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>319</v>
+      </c>
+      <c r="B147" t="s">
+        <v>320</v>
+      </c>
+      <c r="C147" t="s">
+        <v>321</v>
+      </c>
+      <c r="D147" t="s">
         <v>312</v>
       </c>
-      <c r="B147" t="s">
-        <v>307</v>
-      </c>
-      <c r="C147" t="s">
-        <v>307</v>
-      </c>
-      <c r="D147" t="s">
-        <v>278</v>
-      </c>
       <c r="E147" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B148" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="C148" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="D148" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="E148" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B149" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C149" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="D149" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="E149" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B150" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C150" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D150" t="s">
-        <v>278</v>
-      </c>
-      <c r="E150" t="s">
-        <v>30</v>
+        <v>300</v>
+      </c>
+      <c r="E150" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B151" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="C151" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="D151" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="E151" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B152" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C152" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="D152" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="E152" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B153" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C153" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D153" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="E153" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B154" t="s">
         <v>329</v>
@@ -4600,213 +4935,213 @@
         <v>329</v>
       </c>
       <c r="D154" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="E154" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B155" t="s">
         <v>331</v>
       </c>
       <c r="C155" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D155" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="E155" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B156" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C156" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D156" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="E156" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B157" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C157" t="s">
-        <v>24</v>
+        <v>341</v>
       </c>
       <c r="D157" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="E157" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B158" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C158" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D158" t="s">
-        <v>324</v>
-      </c>
-      <c r="E158" t="s" s="1">
-        <v>10</v>
+        <v>300</v>
+      </c>
+      <c r="E158" t="s">
+        <v>30</v>
       </c>
       <c r="F158" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B159" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C159" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D159" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="E159" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B160" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C160" t="s">
+        <v>349</v>
+      </c>
+      <c r="D160" t="s">
         <v>346</v>
       </c>
-      <c r="D160" t="s">
-        <v>324</v>
-      </c>
       <c r="E160" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B161" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C161" t="s">
-        <v>24</v>
+        <v>351</v>
       </c>
       <c r="D161" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E161" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B162" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C162" t="s">
-        <v>24</v>
+        <v>354</v>
       </c>
       <c r="D162" t="s">
-        <v>352</v>
-      </c>
-      <c r="E162" t="s">
-        <v>30</v>
+        <v>346</v>
+      </c>
+      <c r="E162" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B163" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C163" t="s">
-        <v>24</v>
+        <v>357</v>
       </c>
       <c r="D163" t="s">
-        <v>355</v>
-      </c>
-      <c r="E163" t="s">
-        <v>30</v>
+        <v>346</v>
+      </c>
+      <c r="E163" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>356</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B164" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C164" t="s">
-        <v>359</v>
+        <v>24</v>
       </c>
       <c r="D164" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E164" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>356</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165">
@@ -4820,13 +5155,13 @@
         <v>362</v>
       </c>
       <c r="D165" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E165" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>356</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166">
@@ -4840,13 +5175,13 @@
         <v>365</v>
       </c>
       <c r="D166" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E166" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>356</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167">
@@ -4860,13 +5195,13 @@
         <v>368</v>
       </c>
       <c r="D167" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E167" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>356</v>
+        <v>139</v>
       </c>
     </row>
     <row r="168">
@@ -4877,16 +5212,16 @@
         <v>370</v>
       </c>
       <c r="C168" t="s">
+        <v>24</v>
+      </c>
+      <c r="D168" t="s">
         <v>371</v>
       </c>
-      <c r="D168" t="s">
-        <v>355</v>
-      </c>
       <c r="E168" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>356</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169">
@@ -4897,176 +5232,1156 @@
         <v>373</v>
       </c>
       <c r="C169" t="s">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>355</v>
-      </c>
-      <c r="E169" t="s" s="1">
-        <v>10</v>
+        <v>138</v>
+      </c>
+      <c r="E169" t="s">
+        <v>30</v>
       </c>
       <c r="F169" t="s">
-        <v>356</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
+        <v>374</v>
+      </c>
+      <c r="B170" t="s">
         <v>375</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>376</v>
       </c>
-      <c r="C170" t="s">
-        <v>323</v>
-      </c>
       <c r="D170" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E170" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B171" t="s">
-        <v>24</v>
+        <v>379</v>
       </c>
       <c r="C171" t="s">
         <v>24</v>
       </c>
       <c r="D171" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E171" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B172" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C172" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D172" t="s">
-        <v>355</v>
-      </c>
-      <c r="E172" t="s" s="1">
-        <v>10</v>
+        <v>346</v>
+      </c>
+      <c r="E172" t="s">
+        <v>30</v>
       </c>
       <c r="F172" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B173" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C173" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D173" t="s">
-        <v>355</v>
-      </c>
-      <c r="E173" t="s" s="1">
-        <v>10</v>
+        <v>346</v>
+      </c>
+      <c r="E173" t="s">
+        <v>30</v>
       </c>
       <c r="F173" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B174" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C174" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D174" t="s">
-        <v>355</v>
-      </c>
-      <c r="E174" t="s">
-        <v>30</v>
+        <v>346</v>
+      </c>
+      <c r="E174" t="s" s="1">
+        <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B175" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C175" t="s">
-        <v>24</v>
+        <v>390</v>
       </c>
       <c r="D175" t="s">
-        <v>349</v>
-      </c>
-      <c r="E175" t="s" s="1">
-        <v>10</v>
+        <v>346</v>
+      </c>
+      <c r="E175" t="s">
+        <v>30</v>
       </c>
       <c r="F175" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B176" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C176" t="s">
         <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E176" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B177" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C177" t="s">
         <v>24</v>
       </c>
       <c r="D177" t="s">
-        <v>352</v>
-      </c>
-      <c r="E177" t="s">
+        <v>346</v>
+      </c>
+      <c r="E177" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F177" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>395</v>
+      </c>
+      <c r="B178" t="s">
+        <v>396</v>
+      </c>
+      <c r="C178" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178" t="s">
+        <v>346</v>
+      </c>
+      <c r="E178" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F178" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>397</v>
+      </c>
+      <c r="B179" t="s">
+        <v>398</v>
+      </c>
+      <c r="C179" t="s">
+        <v>399</v>
+      </c>
+      <c r="D179" t="s">
+        <v>346</v>
+      </c>
+      <c r="E179" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F179" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>400</v>
+      </c>
+      <c r="B180" t="s">
+        <v>401</v>
+      </c>
+      <c r="C180" t="s">
+        <v>402</v>
+      </c>
+      <c r="D180" t="s">
+        <v>346</v>
+      </c>
+      <c r="E180" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F180" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>403</v>
+      </c>
+      <c r="B181" t="s">
+        <v>349</v>
+      </c>
+      <c r="C181" t="s">
+        <v>348</v>
+      </c>
+      <c r="D181" t="s">
+        <v>346</v>
+      </c>
+      <c r="E181" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F181" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>404</v>
+      </c>
+      <c r="B182" t="s">
+        <v>405</v>
+      </c>
+      <c r="C182" t="s">
+        <v>405</v>
+      </c>
+      <c r="D182" t="s">
+        <v>346</v>
+      </c>
+      <c r="E182" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F182" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>406</v>
+      </c>
+      <c r="B183" t="s">
+        <v>407</v>
+      </c>
+      <c r="C183" t="s">
+        <v>407</v>
+      </c>
+      <c r="D183" t="s">
+        <v>346</v>
+      </c>
+      <c r="E183" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F183" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>408</v>
+      </c>
+      <c r="B184" t="s">
+        <v>409</v>
+      </c>
+      <c r="C184" t="s">
+        <v>345</v>
+      </c>
+      <c r="D184" t="s">
+        <v>346</v>
+      </c>
+      <c r="E184" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F184" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>410</v>
+      </c>
+      <c r="B185" t="s">
+        <v>411</v>
+      </c>
+      <c r="C185" t="s">
+        <v>412</v>
+      </c>
+      <c r="D185" t="s">
+        <v>346</v>
+      </c>
+      <c r="E185" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F185" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>413</v>
+      </c>
+      <c r="B186" t="s">
+        <v>414</v>
+      </c>
+      <c r="C186" t="s">
+        <v>415</v>
+      </c>
+      <c r="D186" t="s">
+        <v>346</v>
+      </c>
+      <c r="E186" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F186" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>416</v>
+      </c>
+      <c r="B187" t="s">
+        <v>417</v>
+      </c>
+      <c r="C187" t="s">
+        <v>24</v>
+      </c>
+      <c r="D187" t="s">
+        <v>418</v>
+      </c>
+      <c r="E187" t="s">
         <v>30</v>
       </c>
-      <c r="F177" t="s">
-        <v>356</v>
+      <c r="F187" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>416</v>
+      </c>
+      <c r="B188" t="s">
+        <v>419</v>
+      </c>
+      <c r="C188" t="s">
+        <v>24</v>
+      </c>
+      <c r="D188" t="s">
+        <v>418</v>
+      </c>
+      <c r="E188" t="s">
+        <v>30</v>
+      </c>
+      <c r="F188" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>416</v>
+      </c>
+      <c r="B189" t="s">
+        <v>417</v>
+      </c>
+      <c r="C189" t="s">
+        <v>24</v>
+      </c>
+      <c r="D189" t="s">
+        <v>418</v>
+      </c>
+      <c r="E189" t="s">
+        <v>30</v>
+      </c>
+      <c r="F189" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>420</v>
+      </c>
+      <c r="B190" t="s">
+        <v>421</v>
+      </c>
+      <c r="C190" t="s">
+        <v>422</v>
+      </c>
+      <c r="D190" t="s">
+        <v>418</v>
+      </c>
+      <c r="E190" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F190" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>420</v>
+      </c>
+      <c r="B191" t="s">
+        <v>423</v>
+      </c>
+      <c r="C191" t="s">
+        <v>422</v>
+      </c>
+      <c r="D191" t="s">
+        <v>418</v>
+      </c>
+      <c r="E191" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F191" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>424</v>
+      </c>
+      <c r="B192" t="s">
+        <v>425</v>
+      </c>
+      <c r="C192" t="s">
+        <v>426</v>
+      </c>
+      <c r="D192" t="s">
+        <v>418</v>
+      </c>
+      <c r="E192" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F192" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>424</v>
+      </c>
+      <c r="B193" t="s">
+        <v>425</v>
+      </c>
+      <c r="C193" t="s">
+        <v>426</v>
+      </c>
+      <c r="D193" t="s">
+        <v>418</v>
+      </c>
+      <c r="E193" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F193" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>427</v>
+      </c>
+      <c r="B194" t="s">
+        <v>428</v>
+      </c>
+      <c r="C194" t="s">
+        <v>429</v>
+      </c>
+      <c r="D194" t="s">
+        <v>418</v>
+      </c>
+      <c r="E194" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F194" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>427</v>
+      </c>
+      <c r="B195" t="s">
+        <v>430</v>
+      </c>
+      <c r="C195" t="s">
+        <v>429</v>
+      </c>
+      <c r="D195" t="s">
+        <v>418</v>
+      </c>
+      <c r="E195" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F195" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>431</v>
+      </c>
+      <c r="B196" t="s">
+        <v>432</v>
+      </c>
+      <c r="C196" t="s">
+        <v>433</v>
+      </c>
+      <c r="D196" t="s">
+        <v>418</v>
+      </c>
+      <c r="E196" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F196" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>431</v>
+      </c>
+      <c r="B197" t="s">
+        <v>434</v>
+      </c>
+      <c r="C197" t="s">
+        <v>433</v>
+      </c>
+      <c r="D197" t="s">
+        <v>418</v>
+      </c>
+      <c r="E197" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F197" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>435</v>
+      </c>
+      <c r="B198" t="s">
+        <v>436</v>
+      </c>
+      <c r="C198" t="s">
+        <v>437</v>
+      </c>
+      <c r="D198" t="s">
+        <v>418</v>
+      </c>
+      <c r="E198" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F198" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>435</v>
+      </c>
+      <c r="B199" t="s">
+        <v>438</v>
+      </c>
+      <c r="C199" t="s">
+        <v>437</v>
+      </c>
+      <c r="D199" t="s">
+        <v>418</v>
+      </c>
+      <c r="E199" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F199" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>439</v>
+      </c>
+      <c r="B200" t="s">
+        <v>440</v>
+      </c>
+      <c r="C200" t="s">
+        <v>441</v>
+      </c>
+      <c r="D200" t="s">
+        <v>418</v>
+      </c>
+      <c r="E200" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F200" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>439</v>
+      </c>
+      <c r="B201" t="s">
+        <v>442</v>
+      </c>
+      <c r="C201" t="s">
+        <v>441</v>
+      </c>
+      <c r="D201" t="s">
+        <v>418</v>
+      </c>
+      <c r="E201" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F201" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>443</v>
+      </c>
+      <c r="B202" t="s">
+        <v>444</v>
+      </c>
+      <c r="C202" t="s">
+        <v>345</v>
+      </c>
+      <c r="D202" t="s">
+        <v>418</v>
+      </c>
+      <c r="E202" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F202" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>443</v>
+      </c>
+      <c r="B203" t="s">
+        <v>445</v>
+      </c>
+      <c r="C203" t="s">
+        <v>345</v>
+      </c>
+      <c r="D203" t="s">
+        <v>418</v>
+      </c>
+      <c r="E203" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F203" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>446</v>
+      </c>
+      <c r="B204" t="s">
+        <v>24</v>
+      </c>
+      <c r="C204" t="s">
+        <v>24</v>
+      </c>
+      <c r="D204" t="s">
+        <v>418</v>
+      </c>
+      <c r="E204" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F204" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>446</v>
+      </c>
+      <c r="B205" t="s">
+        <v>24</v>
+      </c>
+      <c r="C205" t="s">
+        <v>24</v>
+      </c>
+      <c r="D205" t="s">
+        <v>418</v>
+      </c>
+      <c r="E205" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F205" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>447</v>
+      </c>
+      <c r="B206" t="s">
+        <v>448</v>
+      </c>
+      <c r="C206" t="s">
+        <v>449</v>
+      </c>
+      <c r="D206" t="s">
+        <v>418</v>
+      </c>
+      <c r="E206" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F206" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>447</v>
+      </c>
+      <c r="B207" t="s">
+        <v>450</v>
+      </c>
+      <c r="C207" t="s">
+        <v>449</v>
+      </c>
+      <c r="D207" t="s">
+        <v>418</v>
+      </c>
+      <c r="E207" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F207" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>451</v>
+      </c>
+      <c r="B208" t="s">
+        <v>452</v>
+      </c>
+      <c r="C208" t="s">
+        <v>453</v>
+      </c>
+      <c r="D208" t="s">
+        <v>418</v>
+      </c>
+      <c r="E208" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F208" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>451</v>
+      </c>
+      <c r="B209" t="s">
+        <v>454</v>
+      </c>
+      <c r="C209" t="s">
+        <v>453</v>
+      </c>
+      <c r="D209" t="s">
+        <v>418</v>
+      </c>
+      <c r="E209" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F209" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>455</v>
+      </c>
+      <c r="B210" t="s">
+        <v>456</v>
+      </c>
+      <c r="C210" t="s">
+        <v>457</v>
+      </c>
+      <c r="D210" t="s">
+        <v>418</v>
+      </c>
+      <c r="E210" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F210" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>455</v>
+      </c>
+      <c r="B211" t="s">
+        <v>456</v>
+      </c>
+      <c r="C211" t="s">
+        <v>457</v>
+      </c>
+      <c r="D211" t="s">
+        <v>418</v>
+      </c>
+      <c r="E211" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F211" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>458</v>
+      </c>
+      <c r="B212" t="s">
+        <v>459</v>
+      </c>
+      <c r="C212" t="s">
+        <v>24</v>
+      </c>
+      <c r="D212" t="s">
+        <v>371</v>
+      </c>
+      <c r="E212" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F212" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>458</v>
+      </c>
+      <c r="B213" t="s">
+        <v>460</v>
+      </c>
+      <c r="C213" t="s">
+        <v>24</v>
+      </c>
+      <c r="D213" t="s">
+        <v>346</v>
+      </c>
+      <c r="E213" t="s">
+        <v>30</v>
+      </c>
+      <c r="F213" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>461</v>
+      </c>
+      <c r="B214" t="s">
+        <v>462</v>
+      </c>
+      <c r="C214" t="s">
+        <v>24</v>
+      </c>
+      <c r="D214" t="s">
+        <v>418</v>
+      </c>
+      <c r="E214" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F214" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>463</v>
+      </c>
+      <c r="B215" t="s">
+        <v>137</v>
+      </c>
+      <c r="C215" t="s">
+        <v>24</v>
+      </c>
+      <c r="D215" t="s">
+        <v>138</v>
+      </c>
+      <c r="E215" t="s">
+        <v>30</v>
+      </c>
+      <c r="F215" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>464</v>
+      </c>
+      <c r="B216" t="s">
+        <v>465</v>
+      </c>
+      <c r="C216" t="s">
+        <v>465</v>
+      </c>
+      <c r="D216" t="s">
+        <v>418</v>
+      </c>
+      <c r="E216" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F216" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>466</v>
+      </c>
+      <c r="B217" t="s">
+        <v>467</v>
+      </c>
+      <c r="C217" t="s">
+        <v>24</v>
+      </c>
+      <c r="D217" t="s">
+        <v>418</v>
+      </c>
+      <c r="E217" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F217" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>468</v>
+      </c>
+      <c r="B218" t="s">
+        <v>469</v>
+      </c>
+      <c r="C218" t="s">
+        <v>470</v>
+      </c>
+      <c r="D218" t="s">
+        <v>418</v>
+      </c>
+      <c r="E218" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F218" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>471</v>
+      </c>
+      <c r="B219" t="s">
+        <v>472</v>
+      </c>
+      <c r="C219" t="s">
+        <v>24</v>
+      </c>
+      <c r="D219" t="s">
+        <v>418</v>
+      </c>
+      <c r="E219" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F219" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>473</v>
+      </c>
+      <c r="B220" t="s">
+        <v>474</v>
+      </c>
+      <c r="C220" t="s">
+        <v>475</v>
+      </c>
+      <c r="D220" t="s">
+        <v>418</v>
+      </c>
+      <c r="E220" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F220" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>476</v>
+      </c>
+      <c r="B221" t="s">
+        <v>474</v>
+      </c>
+      <c r="C221" t="s">
+        <v>477</v>
+      </c>
+      <c r="D221" t="s">
+        <v>418</v>
+      </c>
+      <c r="E221" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F221" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>478</v>
+      </c>
+      <c r="B222" t="s">
+        <v>425</v>
+      </c>
+      <c r="C222" t="s">
+        <v>426</v>
+      </c>
+      <c r="D222" t="s">
+        <v>418</v>
+      </c>
+      <c r="E222" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F222" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>479</v>
+      </c>
+      <c r="B223" t="s">
+        <v>480</v>
+      </c>
+      <c r="C223" t="s">
+        <v>24</v>
+      </c>
+      <c r="D223" t="s">
+        <v>418</v>
+      </c>
+      <c r="E223" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F223" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>479</v>
+      </c>
+      <c r="B224" t="s">
+        <v>480</v>
+      </c>
+      <c r="C224" t="s">
+        <v>24</v>
+      </c>
+      <c r="D224" t="s">
+        <v>418</v>
+      </c>
+      <c r="E224" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F224" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>481</v>
+      </c>
+      <c r="B225" t="s">
+        <v>482</v>
+      </c>
+      <c r="C225" t="s">
+        <v>24</v>
+      </c>
+      <c r="D225" t="s">
+        <v>418</v>
+      </c>
+      <c r="E225" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F225" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>481</v>
+      </c>
+      <c r="B226" t="s">
+        <v>482</v>
+      </c>
+      <c r="C226" t="s">
+        <v>24</v>
+      </c>
+      <c r="D226" t="s">
+        <v>418</v>
+      </c>
+      <c r="E226" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F226" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/InternalPortal/tcfile.xlsx
+++ b/InternalPortal/tcfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="226">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Environment</t>
   </si>
   <si>
     <t>FILT_001_Verify_Filters_In_Pricing</t>
@@ -721,16 +724,26 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <sz val="13.0"/>
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -745,1822 +758,1927 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" tabSelected="true">
+      <pane ySplit="1.0" state="frozen" topLeftCell="G2" activePane="bottomRight" xSplit="6.0"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="46.875" customWidth="true"/>
+    <col min="2" max="2" width="31.25" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
+    <col min="4" max="4" width="19.921875" customWidth="true"/>
+    <col min="5" max="5" width="12.96875" customWidth="true"/>
+    <col min="6" max="6" width="12.265625" customWidth="true"/>
+    <col min="7" max="7" width="13.828125" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" t="s">
-        <v>73</v>
-      </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" t="s">
         <v>136</v>
       </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" t="s">
-        <v>135</v>
-      </c>
       <c r="F51" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F58" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" t="s">
         <v>113</v>
       </c>
-      <c r="C63" t="s">
-        <v>112</v>
-      </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C66" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B67" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D67" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D68" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B69" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" t="s">
         <v>182</v>
       </c>
-      <c r="B70" t="s">
-        <v>183</v>
-      </c>
-      <c r="C70" t="s">
-        <v>184</v>
-      </c>
-      <c r="D70" t="s">
-        <v>181</v>
-      </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B79" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B81" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C86" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D86" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B88" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G90"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/InternalPortal/tcfile.xlsx
+++ b/InternalPortal/tcfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="126">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -47,10 +47,364 @@
     <t>Not Executed..</t>
   </si>
   <si>
-    <t>2023-08-07 15:47:55</t>
+    <t>2023-08-08 18:01:22</t>
   </si>
   <si>
     <t>QA Instance</t>
+  </si>
+  <si>
+    <t>PERMNS_049_Verify_Repair Request_Permission_As_None</t>
+  </si>
+  <si>
+    <t>Sorry, you do not have permissions to access this page.</t>
+  </si>
+  <si>
+    <t>Top displayed text is Sorry, you do not have permissions to access this page.</t>
+  </si>
+  <si>
+    <t>Repairs_Permissions</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>2023-08-07 17:45:53</t>
+  </si>
+  <si>
+    <t>PERMNS_050_Verify_Repair Request_Permission_As_View</t>
+  </si>
+  <si>
+    <t>Display All Items
+Filters</t>
+  </si>
+  <si>
+    <t>Top displayed text is Display All Items
+Filters</t>
+  </si>
+  <si>
+    <t>2023-08-07 17:46:27</t>
+  </si>
+  <si>
+    <t>PERMNS_051_Verify_Add To Quote_Permission_As_Yes_In_Repairs</t>
+  </si>
+  <si>
+    <t>Add items to quote</t>
+  </si>
+  <si>
+    <t>In Item displayed button is Add items to quote</t>
+  </si>
+  <si>
+    <t>2023-08-07 17:47:50</t>
+  </si>
+  <si>
+    <t>PERMNS_052_Verify_Add To Quote_Permission_As_No_In_Repairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Item displayed button is </t>
+  </si>
+  <si>
+    <t>2023-08-07 17:57:06</t>
+  </si>
+  <si>
+    <t>QUOTES_001_VerifyCreateQuote</t>
+  </si>
+  <si>
+    <t>#2023080800009
+OPEN</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>QuotesPage</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:05:16</t>
+  </si>
+  <si>
+    <t>QUOTES_002_VerifySelectItemToQuote</t>
+  </si>
+  <si>
+    <t>Quote Items (0)</t>
+  </si>
+  <si>
+    <t>Quote Items (1)</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:05:47</t>
+  </si>
+  <si>
+    <t>QUOTES_003_VerifyLeadTimeDisplayedOrNot</t>
+  </si>
+  <si>
+    <t>2-421 Week(s)</t>
+  </si>
+  <si>
+    <t>21 Week(s)</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>QUOTES_004_VerifyBulkEdit</t>
+  </si>
+  <si>
+    <t>Displayed Discount is 32.23 %</t>
+  </si>
+  <si>
+    <t>Applied Discount is 32.23 %</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:06:21</t>
+  </si>
+  <si>
+    <t>QUOTES_005_VerifySubmitForInternalApproval</t>
+  </si>
+  <si>
+    <t>#2023080800009
+PENDING APPROVAL</t>
+  </si>
+  <si>
+    <t>PENDING APPROVAL</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:06:47</t>
+  </si>
+  <si>
+    <t>QUOTES_006_Verify_Display_TheReviseQuote_When_Quote_Is_Pending_Approval</t>
+  </si>
+  <si>
+    <t>Revise Quote button is Displayed ..? true</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:06:49</t>
+  </si>
+  <si>
+    <t>QUOTES_007_VerifyApproveButton</t>
+  </si>
+  <si>
+    <t>#2023080800009
+APPROVED</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:07:01</t>
+  </si>
+  <si>
+    <t>QUOTES_008_VerifySubmitForCustomerApproval</t>
+  </si>
+  <si>
+    <t>#2023080800009
+DELIVERED TO CUSTOMER</t>
+  </si>
+  <si>
+    <t>DELIVERED TO CUSTOMER</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:07:08</t>
+  </si>
+  <si>
+    <t>QUOTES_009_VerifyQuoteWon</t>
+  </si>
+  <si>
+    <t>#2023080800009
+Option 1
+WON</t>
+  </si>
+  <si>
+    <t>WON</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:07:16</t>
+  </si>
+  <si>
+    <t>QUOTES_010_VerifyCreateSalesOrder</t>
+  </si>
+  <si>
+    <t>Not Executed...</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:07:40</t>
+  </si>
+  <si>
+    <t>QUOTES_011_VerifyCreateJobFromQuote</t>
+  </si>
+  <si>
+    <t>QUOTES_012_Verify_Quote_Lost</t>
+  </si>
+  <si>
+    <t>#2023080800010
+LOST</t>
+  </si>
+  <si>
+    <t>LOST</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:08:56</t>
+  </si>
+  <si>
+    <t>QUOTES_013_VerifyPrintFunctionality</t>
+  </si>
+  <si>
+    <t>Print working in Quotes Detailed Page.</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:05:53</t>
+  </si>
+  <si>
+    <t>QUOTES_014_VerifySearchByQuoteId</t>
+  </si>
+  <si>
+    <t>2023053100074</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:03:08</t>
+  </si>
+  <si>
+    <t>QUOTES_015_VerifySearchByCompanyName</t>
+  </si>
+  <si>
+    <t>123 E Doty Corporation</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:03:21</t>
+  </si>
+  <si>
+    <t>QUOTES_016_VerifySearchBySalesPersonName</t>
+  </si>
+  <si>
+    <t>Frontier</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:03:34</t>
+  </si>
+  <si>
+    <t>QUOTES_017_VerifySearchByEmail</t>
+  </si>
+  <si>
+    <t>pete.soto@motion-ind.com</t>
+  </si>
+  <si>
+    <t>Pete.Soto</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:03:49</t>
+  </si>
+  <si>
+    <t>QUOTES_018_VerifyFiltersInQuotesListView</t>
+  </si>
+  <si>
+    <t>No Quotes for Parts Found!</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:04:14</t>
+  </si>
+  <si>
+    <t>QUOTES_019_VerifyFiltersStateMaintanance</t>
+  </si>
+  <si>
+    <t>Filter State Maintanance working.</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:04:40</t>
+  </si>
+  <si>
+    <t>QUOTES_020_VerifyResetandClearButtonInFiltersPage</t>
+  </si>
+  <si>
+    <t>Search By Company Name</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:04:57</t>
+  </si>
+  <si>
+    <t>QUOTES_021_VerifyReOpen_ButtonInQuoteDetailePage</t>
+  </si>
+  <si>
+    <t>#2023080800014
+OPEN</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>QUOTES_022_VerifyClose_ButtonInQuoteDetailePage</t>
+  </si>
+  <si>
+    <t>#2023080800014
+CLOSED</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>QUOTES_023_VerifyDeleteIconInQuoteItems</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:05:36</t>
+  </si>
+  <si>
+    <t>QUOTES_024_VerifyEditIconInQuoteItems</t>
+  </si>
+  <si>
+    <t>Quantity:
+13</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:06:15</t>
+  </si>
+  <si>
+    <t>QUOTES_025_Verify_AddOptionInQuoteDetailedView</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:24:31</t>
+  </si>
+  <si>
+    <t>QUOTES_026_VerifyQuoteClone_QuotesForParts</t>
+  </si>
+  <si>
+    <t>#2023080800011
+OPEN</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:09:07</t>
+  </si>
+  <si>
+    <t>QUOTES_027_VerifyQuoteClone_QuotesForRepairs</t>
+  </si>
+  <si>
+    <t>Quote Type is Parts Quote</t>
+  </si>
+  <si>
+    <t>Quote status is #2023080800013
+OPEN</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:23:43</t>
+  </si>
+  <si>
+    <t>QUOTES_028_Verify_Decline_QuotesForParts</t>
+  </si>
+  <si>
+    <t>#2023080800014
+REJECTED</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:25:04</t>
   </si>
 </sst>
 </file>
@@ -114,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="1.0" state="frozen" topLeftCell="G2" activePane="bottomRight" xSplit="6.0"/>
@@ -178,6 +532,736 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
